--- a/data/Data_growth_EPX_DMX.xlsx
+++ b/data/Data_growth_EPX_DMX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisagollot/Library/CloudStorage/OneDrive-Personnel/Documents/0_These/0_RepoGit/Ew-Growth-IdVar/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EA1B68-0633-494B-B98A-D768B1E24DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D55F342-6C6E-D94A-BD2C-C481A873B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30600" yWindow="-3000" windowWidth="25860" windowHeight="15900" xr2:uid="{B6F91018-2402-2E49-89F8-0A687BF48367}"/>
+    <workbookView xWindow="-30600" yWindow="-3000" windowWidth="25860" windowHeight="15900" activeTab="1" xr2:uid="{B6F91018-2402-2E49-89F8-0A687BF48367}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="t0" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Growth!$A$1:$I$421</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Growth!$A$1:$I$301</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="24">
   <si>
     <t>t</t>
   </si>
@@ -76,22 +76,13 @@
     <t>Fell to the ground (1 m)</t>
   </si>
   <si>
-    <t>Estivation</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
     <t>J</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>birth_date</t>
@@ -484,7 +475,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -796,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC86355E-1D05-0645-9F13-E6F28B919B4F}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -807,15 +809,15 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -831,7 +833,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -839,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -847,15 +849,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -863,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -873,11 +875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98193405-CF40-6248-94AF-85C31E4AA383}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K421"/>
+  <dimension ref="A1:K301"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M266" sqref="M266"/>
+    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L315" sqref="L315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -901,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>0</v>
@@ -910,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>4</v>
@@ -939,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4">
         <v>4.4000000000000004</v>
@@ -966,7 +967,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1">
         <v>7.1</v>
@@ -993,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1">
         <v>8.1</v>
@@ -1020,7 +1021,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1">
         <v>8.1999999999999993</v>
@@ -1047,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1">
         <v>9</v>
@@ -1074,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1">
         <v>9.6</v>
@@ -1101,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1">
         <v>9.9</v>
@@ -1128,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1">
         <v>10.8</v>
@@ -1155,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1">
         <v>10.8</v>
@@ -1165,8 +1166,8 @@
       </c>
       <c r="I10" s="7"/>
       <c r="K10">
-        <f>COUNTA(G2:G421)</f>
-        <v>367</v>
+        <f>COUNTA(G2:G301)</f>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1186,7 +1187,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1">
         <v>11.3</v>
@@ -1213,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1">
         <v>11.4</v>
@@ -1240,7 +1241,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1">
         <v>11.4</v>
@@ -1267,7 +1268,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1">
         <v>11.6</v>
@@ -1294,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1">
         <v>11.6</v>
@@ -1321,7 +1322,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1">
         <v>11.7</v>
@@ -1348,7 +1349,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1">
         <v>11.8</v>
@@ -1375,7 +1376,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1">
         <v>12</v>
@@ -1402,7 +1403,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="1">
         <v>12.3</v>
@@ -1429,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="1">
         <v>12.4</v>
@@ -1456,7 +1457,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="1">
         <v>12.9</v>
@@ -1483,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="1">
         <v>13</v>
@@ -1510,7 +1511,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="1">
         <v>13.4</v>
@@ -1537,7 +1538,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="1">
         <v>14.1</v>
@@ -1564,7 +1565,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="1">
         <v>15.3</v>
@@ -1591,7 +1592,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="1">
         <v>15.4</v>
@@ -1618,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="1">
         <v>17.600000000000001</v>
@@ -1645,7 +1646,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" s="1">
         <v>18.399999999999999</v>
@@ -1672,7 +1673,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="1">
         <v>20.3</v>
@@ -1699,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="1">
         <v>23.7</v>
@@ -1709,7 +1710,7 @@
       </c>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>45063</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="1">
         <v>12.9</v>
@@ -1736,7 +1737,7 @@
       </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>45043</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="1">
         <v>5.2</v>
@@ -1763,7 +1764,7 @@
       </c>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>45043</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" s="1">
         <v>6.6</v>
@@ -1790,7 +1791,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>45043</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="1">
         <v>6.6</v>
@@ -1817,7 +1818,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>45043</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" s="1">
         <v>7.9</v>
@@ -1844,7 +1845,7 @@
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>45043</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" s="1">
         <v>8.9</v>
@@ -1871,7 +1872,7 @@
       </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>45043</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" s="1">
         <v>9.8000000000000007</v>
@@ -1898,7 +1899,7 @@
       </c>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>45043</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="1">
         <v>10</v>
@@ -1925,7 +1926,7 @@
       </c>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>45043</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" s="1">
         <v>10.7</v>
@@ -1952,7 +1953,7 @@
       </c>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>45043</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" s="1">
         <v>10.7</v>
@@ -1979,7 +1980,7 @@
       </c>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>45043</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" s="1">
         <v>10.9</v>
@@ -2006,7 +2007,7 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>45043</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" s="1">
         <v>11.1</v>
@@ -2033,7 +2034,7 @@
       </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>45043</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" s="1">
         <v>11.2</v>
@@ -2060,7 +2061,7 @@
       </c>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>45043</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="1">
         <v>11.4</v>
@@ -2087,7 +2088,7 @@
       </c>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>45043</v>
       </c>
@@ -2104,7 +2105,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" s="1">
         <v>11.5</v>
@@ -2114,7 +2115,7 @@
       </c>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45043</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" s="1">
         <v>11.8</v>
@@ -2141,7 +2142,7 @@
       </c>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45043</v>
       </c>
@@ -2158,7 +2159,7 @@
         <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" s="1">
         <v>12.5</v>
@@ -2168,7 +2169,7 @@
       </c>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>45043</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" s="1">
         <v>13</v>
@@ -2195,7 +2196,7 @@
       </c>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>45043</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" s="1">
         <v>13.2</v>
@@ -2222,7 +2223,7 @@
       </c>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>45043</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>7</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" s="1">
         <v>13.5</v>
@@ -2249,7 +2250,7 @@
       </c>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>45043</v>
       </c>
@@ -2266,7 +2267,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" s="1">
         <v>13.7</v>
@@ -2276,7 +2277,7 @@
       </c>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>45043</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" s="1">
         <v>14</v>
@@ -2303,7 +2304,7 @@
       </c>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>45043</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" s="1">
         <v>14.3</v>
@@ -2330,7 +2331,7 @@
       </c>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>45043</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" s="1">
         <v>14.5</v>
@@ -2357,7 +2358,7 @@
       </c>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>45043</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>7</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" s="1">
         <v>14.8</v>
@@ -2384,7 +2385,7 @@
       </c>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>45043</v>
       </c>
@@ -2401,7 +2402,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" s="1">
         <v>15.4</v>
@@ -2411,7 +2412,7 @@
       </c>
       <c r="I56" s="7"/>
     </row>
-    <row r="57" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>45043</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>7</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G57" s="1">
         <v>16.8</v>
@@ -2438,7 +2439,7 @@
       </c>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>45043</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>7</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G58" s="1">
         <v>16.899999999999999</v>
@@ -2465,7 +2466,7 @@
       </c>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>45043</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59" s="1">
         <v>17.600000000000001</v>
@@ -2492,7 +2493,7 @@
       </c>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>45043</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G60" s="1">
         <v>18.600000000000001</v>
@@ -2521,7 +2522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>45043</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G61" s="12">
         <v>20</v>
@@ -2565,7 +2566,7 @@
         <v>6</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4">
@@ -2591,7 +2592,7 @@
         <v>6</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" s="1">
         <v>18.2</v>
@@ -2619,7 +2620,7 @@
         <v>6</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G64" s="1">
         <v>23.6</v>
@@ -2647,7 +2648,7 @@
         <v>6</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G65" s="1">
         <v>25.6</v>
@@ -2675,7 +2676,7 @@
         <v>6</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66" s="1">
         <v>30.4</v>
@@ -2703,7 +2704,7 @@
         <v>6</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" s="1">
         <v>37.700000000000003</v>
@@ -2731,7 +2732,7 @@
         <v>6</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G68" s="1">
         <v>17.2</v>
@@ -2759,7 +2760,7 @@
         <v>6</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G69" s="1">
         <v>37.9</v>
@@ -2787,7 +2788,7 @@
         <v>6</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1">
@@ -2813,7 +2814,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71" s="1">
         <v>38.4</v>
@@ -2841,7 +2842,7 @@
         <v>6</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G72" s="1">
         <v>21.4</v>
@@ -2869,7 +2870,7 @@
         <v>6</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G73" s="1">
         <v>26.4</v>
@@ -2897,7 +2898,7 @@
         <v>6</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" s="1">
         <v>24.2</v>
@@ -2925,7 +2926,7 @@
         <v>6</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G75" s="1">
         <v>27.1</v>
@@ -2953,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G76" s="1">
         <v>42</v>
@@ -2981,7 +2982,7 @@
         <v>6</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G77" s="1">
         <v>34.5</v>
@@ -3009,7 +3010,7 @@
         <v>6</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G78" s="1">
         <v>43.2</v>
@@ -3037,7 +3038,7 @@
         <v>6</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G79" s="1">
         <v>23.2</v>
@@ -3065,7 +3066,7 @@
         <v>6</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G80" s="1">
         <v>34.5</v>
@@ -3093,7 +3094,7 @@
         <v>6</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G81" s="1">
         <v>33.200000000000003</v>
@@ -3121,7 +3122,7 @@
         <v>6</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G82" s="1">
         <v>45.2</v>
@@ -3149,7 +3150,7 @@
         <v>6</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G83" s="1">
         <v>27.2</v>
@@ -3177,7 +3178,7 @@
         <v>6</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G84" s="1">
         <v>22</v>
@@ -3205,7 +3206,7 @@
         <v>6</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G85" s="1">
         <v>27.8</v>
@@ -3233,7 +3234,7 @@
         <v>6</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G86" s="1">
         <v>29.6</v>
@@ -3261,7 +3262,7 @@
         <v>6</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G87" s="1">
         <v>20.2</v>
@@ -3289,7 +3290,7 @@
         <v>6</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G88" s="1">
         <v>44.8</v>
@@ -3317,7 +3318,7 @@
         <v>6</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1">
@@ -3343,7 +3344,7 @@
         <v>6</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G90" s="1">
         <v>67.7</v>
@@ -3353,7 +3354,7 @@
       </c>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>45077</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>6</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G91" s="1">
         <v>46.6</v>
@@ -3381,7 +3382,7 @@
       </c>
       <c r="I91" s="7"/>
     </row>
-    <row r="92" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>45057</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>7</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G92" s="1">
         <v>13.4</v>
@@ -3409,7 +3410,7 @@
       </c>
       <c r="I92" s="7"/>
     </row>
-    <row r="93" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>45057</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>7</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G93" s="1">
         <v>11.1</v>
@@ -3437,7 +3438,7 @@
       </c>
       <c r="I93" s="7"/>
     </row>
-    <row r="94" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>45057</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>7</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1">
@@ -3463,7 +3464,7 @@
       </c>
       <c r="I94" s="7"/>
     </row>
-    <row r="95" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>45057</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>7</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G95" s="1">
         <v>19.3</v>
@@ -3491,7 +3492,7 @@
       </c>
       <c r="I95" s="7"/>
     </row>
-    <row r="96" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>45057</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>7</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G96" s="1">
         <v>28.9</v>
@@ -3519,7 +3520,7 @@
       </c>
       <c r="I96" s="7"/>
     </row>
-    <row r="97" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>45057</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>7</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G97" s="1">
         <v>19.8</v>
@@ -3547,7 +3548,7 @@
       </c>
       <c r="I97" s="7"/>
     </row>
-    <row r="98" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>45057</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>7</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G98" s="1">
         <v>7</v>
@@ -3575,7 +3576,7 @@
       </c>
       <c r="I98" s="7"/>
     </row>
-    <row r="99" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>45057</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>7</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G99" s="1">
         <v>38</v>
@@ -3603,7 +3604,7 @@
       </c>
       <c r="I99" s="7"/>
     </row>
-    <row r="100" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>45057</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>7</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G100" s="1">
         <v>43.4</v>
@@ -3631,7 +3632,7 @@
       </c>
       <c r="I100" s="7"/>
     </row>
-    <row r="101" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>45057</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>7</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G101" s="1">
         <v>31.2</v>
@@ -3659,7 +3660,7 @@
       </c>
       <c r="I101" s="7"/>
     </row>
-    <row r="102" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>45057</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>7</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1">
@@ -3685,7 +3686,7 @@
       </c>
       <c r="I102" s="7"/>
     </row>
-    <row r="103" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>45057</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>7</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G103" s="1">
         <v>36.799999999999997</v>
@@ -3713,7 +3714,7 @@
       </c>
       <c r="I103" s="7"/>
     </row>
-    <row r="104" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>45057</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>7</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G104" s="1">
         <v>12.2</v>
@@ -3741,7 +3742,7 @@
       </c>
       <c r="I104" s="7"/>
     </row>
-    <row r="105" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>45057</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>7</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G105" s="1">
         <v>25.6</v>
@@ -3769,7 +3770,7 @@
       </c>
       <c r="I105" s="7"/>
     </row>
-    <row r="106" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>45057</v>
       </c>
@@ -3787,7 +3788,7 @@
         <v>7</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G106" s="1">
         <v>39.1</v>
@@ -3797,7 +3798,7 @@
       </c>
       <c r="I106" s="7"/>
     </row>
-    <row r="107" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>45057</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>7</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G107" s="1">
         <v>34</v>
@@ -3825,7 +3826,7 @@
       </c>
       <c r="I107" s="7"/>
     </row>
-    <row r="108" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>45057</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>7</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G108" s="1">
         <v>45.4</v>
@@ -3853,7 +3854,7 @@
       </c>
       <c r="I108" s="7"/>
     </row>
-    <row r="109" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>45057</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>7</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G109" s="1">
         <v>42.3</v>
@@ -3881,7 +3882,7 @@
       </c>
       <c r="I109" s="7"/>
     </row>
-    <row r="110" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>45057</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>7</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G110" s="1">
         <v>45.6</v>
@@ -3909,7 +3910,7 @@
       </c>
       <c r="I110" s="7"/>
     </row>
-    <row r="111" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>45057</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>7</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G111" s="1">
         <v>48.3</v>
@@ -3937,7 +3938,7 @@
       </c>
       <c r="I111" s="7"/>
     </row>
-    <row r="112" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>45057</v>
       </c>
@@ -3955,7 +3956,7 @@
         <v>7</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G112" s="1">
         <v>56.5</v>
@@ -3965,7 +3966,7 @@
       </c>
       <c r="I112" s="7"/>
     </row>
-    <row r="113" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>45057</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>7</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G113" s="1">
         <v>49.3</v>
@@ -3993,7 +3994,7 @@
       </c>
       <c r="I113" s="7"/>
     </row>
-    <row r="114" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>45057</v>
       </c>
@@ -4011,7 +4012,7 @@
         <v>7</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G114" s="1">
         <v>60.6</v>
@@ -4021,7 +4022,7 @@
       </c>
       <c r="I114" s="7"/>
     </row>
-    <row r="115" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>45057</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>7</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G115" s="1">
         <v>36.200000000000003</v>
@@ -4049,7 +4050,7 @@
       </c>
       <c r="I115" s="7"/>
     </row>
-    <row r="116" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>45057</v>
       </c>
@@ -4067,7 +4068,7 @@
         <v>7</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G116" s="1">
         <v>20.3</v>
@@ -4077,7 +4078,7 @@
       </c>
       <c r="I116" s="7"/>
     </row>
-    <row r="117" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>45057</v>
       </c>
@@ -4095,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G117" s="1">
         <v>53.7</v>
@@ -4105,7 +4106,7 @@
       </c>
       <c r="I117" s="7"/>
     </row>
-    <row r="118" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>45057</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>7</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1">
@@ -4131,7 +4132,7 @@
       </c>
       <c r="I118" s="7"/>
     </row>
-    <row r="119" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>45057</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>7</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G119" s="1">
         <v>45.5</v>
@@ -4159,7 +4160,7 @@
       </c>
       <c r="I119" s="7"/>
     </row>
-    <row r="120" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>45057</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>7</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1">
@@ -4185,7 +4186,7 @@
       </c>
       <c r="I120" s="7"/>
     </row>
-    <row r="121" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>45057</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>7</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G121" s="9">
         <v>80.400000000000006</v>
@@ -4230,7 +4231,7 @@
         <v>6</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4">
@@ -4256,7 +4257,7 @@
         <v>6</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G123" s="1">
         <v>61.8</v>
@@ -4284,7 +4285,7 @@
         <v>6</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G124" s="1">
         <v>70.400000000000006</v>
@@ -4312,7 +4313,7 @@
         <v>6</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G125" s="1">
         <v>90.7</v>
@@ -4340,7 +4341,7 @@
         <v>6</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G126" s="1">
         <v>86</v>
@@ -4368,7 +4369,7 @@
         <v>6</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G127" s="1">
         <v>102.7</v>
@@ -4396,7 +4397,7 @@
         <v>6</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G128" s="1">
         <v>45.2</v>
@@ -4424,7 +4425,7 @@
         <v>6</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G129" s="1">
         <v>113.7</v>
@@ -4452,7 +4453,7 @@
         <v>6</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1">
@@ -4478,7 +4479,7 @@
         <v>6</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G131" s="1">
         <v>107.5</v>
@@ -4506,7 +4507,7 @@
         <v>6</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G132" s="1">
         <v>79.7</v>
@@ -4534,7 +4535,7 @@
         <v>6</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G133" s="1">
         <v>72.5</v>
@@ -4562,7 +4563,7 @@
         <v>6</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G134" s="1">
         <v>74.599999999999994</v>
@@ -4590,7 +4591,7 @@
         <v>6</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G135" s="1">
         <v>75.599999999999994</v>
@@ -4618,7 +4619,7 @@
         <v>6</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G136" s="1">
         <v>114.1</v>
@@ -4646,7 +4647,7 @@
         <v>6</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G137" s="1">
         <v>93.7</v>
@@ -4674,7 +4675,7 @@
         <v>6</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G138" s="1">
         <v>108.7</v>
@@ -4702,7 +4703,7 @@
         <v>6</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G139" s="1">
         <v>59.8</v>
@@ -4730,7 +4731,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G140" s="1">
         <v>102</v>
@@ -4758,7 +4759,7 @@
         <v>6</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G141" s="1">
         <v>95.7</v>
@@ -4786,7 +4787,7 @@
         <v>6</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G142" s="1">
         <v>123.1</v>
@@ -4814,7 +4815,7 @@
         <v>6</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G143" s="1">
         <v>103.3</v>
@@ -4842,7 +4843,7 @@
         <v>6</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G144" s="1">
         <v>65.2</v>
@@ -4870,7 +4871,7 @@
         <v>6</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G145" s="1">
         <v>84.2</v>
@@ -4898,7 +4899,7 @@
         <v>6</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G146" s="1">
         <v>109.1</v>
@@ -4926,7 +4927,7 @@
         <v>6</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G147" s="1">
         <v>58.3</v>
@@ -4954,7 +4955,7 @@
         <v>6</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G148" s="1">
         <v>130.9</v>
@@ -4982,7 +4983,7 @@
         <v>6</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1">
@@ -5008,7 +5009,7 @@
         <v>6</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G150" s="1">
         <v>137.5</v>
@@ -5018,7 +5019,7 @@
       </c>
       <c r="I150" s="7"/>
     </row>
-    <row r="151" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
         <v>45091</v>
       </c>
@@ -5036,7 +5037,7 @@
         <v>6</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G151" s="1">
         <v>129.80000000000001</v>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="I151" s="7"/>
     </row>
-    <row r="152" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>45071</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>7</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G152" s="1">
         <v>39.700000000000003</v>
@@ -5074,7 +5075,7 @@
       </c>
       <c r="I152" s="7"/>
     </row>
-    <row r="153" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>45071</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>7</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G153" s="1">
         <v>45.2</v>
@@ -5102,7 +5103,7 @@
       </c>
       <c r="I153" s="7"/>
     </row>
-    <row r="154" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>45071</v>
       </c>
@@ -5120,7 +5121,7 @@
         <v>7</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G154" s="1">
         <v>40.700000000000003</v>
@@ -5130,7 +5131,7 @@
       </c>
       <c r="I154" s="7"/>
     </row>
-    <row r="155" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>45071</v>
       </c>
@@ -5148,7 +5149,7 @@
         <v>7</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G155" s="1">
         <v>71.599999999999994</v>
@@ -5158,7 +5159,7 @@
       </c>
       <c r="I155" s="7"/>
     </row>
-    <row r="156" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>45071</v>
       </c>
@@ -5176,7 +5177,7 @@
         <v>7</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G156" s="1">
         <v>93.2</v>
@@ -5186,7 +5187,7 @@
       </c>
       <c r="I156" s="7"/>
     </row>
-    <row r="157" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>45071</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>7</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G157" s="1">
         <v>31.8</v>
@@ -5214,7 +5215,7 @@
       </c>
       <c r="I157" s="7"/>
     </row>
-    <row r="158" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>45071</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>7</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G158" s="1">
         <v>5.5</v>
@@ -5242,7 +5243,7 @@
       </c>
       <c r="I158" s="7"/>
     </row>
-    <row r="159" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>45071</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>7</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G159" s="1">
         <v>106.8</v>
@@ -5270,7 +5271,7 @@
       </c>
       <c r="I159" s="7"/>
     </row>
-    <row r="160" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>45071</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>7</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G160" s="1">
         <v>130.5</v>
@@ -5298,7 +5299,7 @@
       </c>
       <c r="I160" s="7"/>
     </row>
-    <row r="161" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>45071</v>
       </c>
@@ -5316,7 +5317,7 @@
         <v>7</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G161" s="1">
         <v>86.8</v>
@@ -5326,7 +5327,7 @@
       </c>
       <c r="I161" s="7"/>
     </row>
-    <row r="162" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>45071</v>
       </c>
@@ -5344,7 +5345,7 @@
         <v>7</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1">
@@ -5352,7 +5353,7 @@
       </c>
       <c r="I162" s="7"/>
     </row>
-    <row r="163" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>45071</v>
       </c>
@@ -5370,7 +5371,7 @@
         <v>7</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G163" s="1">
         <v>126.4</v>
@@ -5380,7 +5381,7 @@
       </c>
       <c r="I163" s="7"/>
     </row>
-    <row r="164" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>45071</v>
       </c>
@@ -5398,7 +5399,7 @@
         <v>7</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1">
@@ -5406,7 +5407,7 @@
       </c>
       <c r="I164" s="7"/>
     </row>
-    <row r="165" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>45071</v>
       </c>
@@ -5424,7 +5425,7 @@
         <v>7</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G165" s="1">
         <v>75.400000000000006</v>
@@ -5434,7 +5435,7 @@
       </c>
       <c r="I165" s="7"/>
     </row>
-    <row r="166" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>45071</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>7</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G166" s="1">
         <v>129.9</v>
@@ -5462,7 +5463,7 @@
       </c>
       <c r="I166" s="7"/>
     </row>
-    <row r="167" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>45071</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>7</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G167" s="1">
         <v>103.1</v>
@@ -5490,7 +5491,7 @@
       </c>
       <c r="I167" s="7"/>
     </row>
-    <row r="168" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>45071</v>
       </c>
@@ -5508,7 +5509,7 @@
         <v>7</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G168" s="1">
         <v>165.1</v>
@@ -5518,7 +5519,7 @@
       </c>
       <c r="I168" s="7"/>
     </row>
-    <row r="169" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>45071</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>7</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G169" s="1">
         <v>132</v>
@@ -5546,7 +5547,7 @@
       </c>
       <c r="I169" s="7"/>
     </row>
-    <row r="170" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>45071</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>7</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G170" s="1">
         <v>135.30000000000001</v>
@@ -5574,7 +5575,7 @@
       </c>
       <c r="I170" s="7"/>
     </row>
-    <row r="171" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>45071</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>7</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G171" s="1">
         <v>134.5</v>
@@ -5602,7 +5603,7 @@
       </c>
       <c r="I171" s="7"/>
     </row>
-    <row r="172" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>45071</v>
       </c>
@@ -5620,7 +5621,7 @@
         <v>7</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G172" s="1">
         <v>156.6</v>
@@ -5630,7 +5631,7 @@
       </c>
       <c r="I172" s="7"/>
     </row>
-    <row r="173" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>45071</v>
       </c>
@@ -5648,7 +5649,7 @@
         <v>7</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G173" s="1">
         <v>129.30000000000001</v>
@@ -5658,7 +5659,7 @@
       </c>
       <c r="I173" s="7"/>
     </row>
-    <row r="174" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>45071</v>
       </c>
@@ -5676,7 +5677,7 @@
         <v>7</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G174" s="1">
         <v>149.80000000000001</v>
@@ -5686,7 +5687,7 @@
       </c>
       <c r="I174" s="7"/>
     </row>
-    <row r="175" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>45071</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>7</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G175" s="1">
         <v>111.2</v>
@@ -5714,7 +5715,7 @@
       </c>
       <c r="I175" s="7"/>
     </row>
-    <row r="176" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>45071</v>
       </c>
@@ -5732,7 +5733,7 @@
         <v>7</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G176" s="1">
         <v>17.8</v>
@@ -5742,7 +5743,7 @@
       </c>
       <c r="I176" s="7"/>
     </row>
-    <row r="177" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>45071</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>7</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G177" s="1">
         <v>120.6</v>
@@ -5770,7 +5771,7 @@
       </c>
       <c r="I177" s="7"/>
     </row>
-    <row r="178" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>45071</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>7</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1">
@@ -5796,7 +5797,7 @@
       </c>
       <c r="I178" s="7"/>
     </row>
-    <row r="179" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>45071</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>7</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G179" s="1">
         <v>143.6</v>
@@ -5824,7 +5825,7 @@
       </c>
       <c r="I179" s="7"/>
     </row>
-    <row r="180" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>45071</v>
       </c>
@@ -5842,7 +5843,7 @@
         <v>7</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1">
@@ -5850,7 +5851,7 @@
       </c>
       <c r="I180" s="7"/>
     </row>
-    <row r="181" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>45071</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>7</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G181" s="9">
         <v>178.6</v>
@@ -5895,7 +5896,7 @@
         <v>6</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="4">
@@ -5921,7 +5922,7 @@
         <v>6</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G183" s="1">
         <v>108.9</v>
@@ -5949,7 +5950,7 @@
         <v>6</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G184" s="1">
         <v>126.4</v>
@@ -5977,7 +5978,7 @@
         <v>6</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G185" s="1">
         <v>142.5</v>
@@ -6005,7 +6006,7 @@
         <v>6</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G186" s="1">
         <v>148.9</v>
@@ -6033,7 +6034,7 @@
         <v>6</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G187" s="1">
         <v>207.2</v>
@@ -6061,7 +6062,7 @@
         <v>6</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G188" s="1">
         <v>85.4</v>
@@ -6089,7 +6090,7 @@
         <v>6</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G189" s="1">
         <v>184.5</v>
@@ -6117,7 +6118,7 @@
         <v>6</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1">
@@ -6143,7 +6144,7 @@
         <v>6</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G191" s="1">
         <v>156.1</v>
@@ -6171,7 +6172,7 @@
         <v>6</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G192" s="1">
         <v>142.30000000000001</v>
@@ -6199,7 +6200,7 @@
         <v>6</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G193" s="1">
         <v>138.69999999999999</v>
@@ -6227,7 +6228,7 @@
         <v>6</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G194" s="1">
         <v>138.19999999999999</v>
@@ -6255,7 +6256,7 @@
         <v>6</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G195" s="1">
         <v>141.9</v>
@@ -6283,7 +6284,7 @@
         <v>6</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G196" s="1">
         <v>182</v>
@@ -6311,7 +6312,7 @@
         <v>6</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G197" s="1">
         <v>163.69999999999999</v>
@@ -6339,7 +6340,7 @@
         <v>6</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G198" s="1">
         <v>154.30000000000001</v>
@@ -6367,7 +6368,7 @@
         <v>6</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G199" s="1">
         <v>108.1</v>
@@ -6395,7 +6396,7 @@
         <v>6</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G200" s="1">
         <v>169.8</v>
@@ -6423,7 +6424,7 @@
         <v>6</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G201" s="1">
         <v>154.1</v>
@@ -6451,7 +6452,7 @@
         <v>6</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G202" s="1">
         <v>200.3</v>
@@ -6479,7 +6480,7 @@
         <v>6</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G203" s="1">
         <v>134.6</v>
@@ -6507,7 +6508,7 @@
         <v>6</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G204" s="1">
         <v>113.9</v>
@@ -6535,7 +6536,7 @@
         <v>6</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G205" s="1">
         <v>135.19999999999999</v>
@@ -6563,7 +6564,7 @@
         <v>6</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G206" s="1">
         <v>169.5</v>
@@ -6591,7 +6592,7 @@
         <v>6</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G207" s="1">
         <v>78.599999999999994</v>
@@ -6619,7 +6620,7 @@
         <v>6</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G208" s="1">
         <v>209.8</v>
@@ -6647,7 +6648,7 @@
         <v>6</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1">
@@ -6673,7 +6674,7 @@
         <v>6</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G210" s="1">
         <v>228.9</v>
@@ -6683,7 +6684,7 @@
       </c>
       <c r="I210" s="7"/>
     </row>
-    <row r="211" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="16">
         <v>45105</v>
       </c>
@@ -6701,7 +6702,7 @@
         <v>6</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G211" s="1">
         <v>195.1</v>
@@ -6711,7 +6712,7 @@
       </c>
       <c r="I211" s="7"/>
     </row>
-    <row r="212" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>45085</v>
       </c>
@@ -6729,7 +6730,7 @@
         <v>7</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G212" s="1">
         <v>71.7</v>
@@ -6739,7 +6740,7 @@
       </c>
       <c r="I212" s="7"/>
     </row>
-    <row r="213" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>45085</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>7</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G213" s="1">
         <v>81.7</v>
@@ -6769,7 +6770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>45085</v>
       </c>
@@ -6787,7 +6788,7 @@
         <v>7</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G214" s="1">
         <v>65.2</v>
@@ -6797,7 +6798,7 @@
       </c>
       <c r="I214" s="7"/>
     </row>
-    <row r="215" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>45085</v>
       </c>
@@ -6815,7 +6816,7 @@
         <v>7</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G215" s="1">
         <v>109.6</v>
@@ -6825,7 +6826,7 @@
       </c>
       <c r="I215" s="7"/>
     </row>
-    <row r="216" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>45085</v>
       </c>
@@ -6843,7 +6844,7 @@
         <v>7</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G216" s="1">
         <v>143.80000000000001</v>
@@ -6853,7 +6854,7 @@
       </c>
       <c r="I216" s="7"/>
     </row>
-    <row r="217" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>45085</v>
       </c>
@@ -6871,7 +6872,7 @@
         <v>7</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G217" s="1">
         <v>35.5</v>
@@ -6881,7 +6882,7 @@
       </c>
       <c r="I217" s="7"/>
     </row>
-    <row r="218" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>45085</v>
       </c>
@@ -6899,7 +6900,7 @@
         <v>7</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="1">
@@ -6907,7 +6908,7 @@
       </c>
       <c r="I218" s="7"/>
     </row>
-    <row r="219" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>45085</v>
       </c>
@@ -6925,7 +6926,7 @@
         <v>7</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G219" s="1">
         <v>149.30000000000001</v>
@@ -6935,7 +6936,7 @@
       </c>
       <c r="I219" s="7"/>
     </row>
-    <row r="220" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>45085</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>7</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G220" s="1">
         <v>212.7</v>
@@ -6963,7 +6964,7 @@
       </c>
       <c r="I220" s="7"/>
     </row>
-    <row r="221" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>45085</v>
       </c>
@@ -6981,7 +6982,7 @@
         <v>7</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G221" s="1">
         <v>111.9</v>
@@ -6991,7 +6992,7 @@
       </c>
       <c r="I221" s="7"/>
     </row>
-    <row r="222" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>45085</v>
       </c>
@@ -7009,7 +7010,7 @@
         <v>7</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1">
@@ -7017,7 +7018,7 @@
       </c>
       <c r="I222" s="7"/>
     </row>
-    <row r="223" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>45085</v>
       </c>
@@ -7035,7 +7036,7 @@
         <v>7</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G223" s="1">
         <v>191.4</v>
@@ -7045,7 +7046,7 @@
       </c>
       <c r="I223" s="7"/>
     </row>
-    <row r="224" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>45085</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>7</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1">
@@ -7071,7 +7072,7 @@
       </c>
       <c r="I224" s="7"/>
     </row>
-    <row r="225" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>45085</v>
       </c>
@@ -7089,7 +7090,7 @@
         <v>7</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G225" s="1">
         <v>115.3</v>
@@ -7099,7 +7100,7 @@
       </c>
       <c r="I225" s="7"/>
     </row>
-    <row r="226" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>45085</v>
       </c>
@@ -7117,7 +7118,7 @@
         <v>7</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G226" s="1">
         <v>206.3</v>
@@ -7127,7 +7128,7 @@
       </c>
       <c r="I226" s="7"/>
     </row>
-    <row r="227" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>45085</v>
       </c>
@@ -7145,7 +7146,7 @@
         <v>7</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G227" s="1">
         <v>164.5</v>
@@ -7155,7 +7156,7 @@
       </c>
       <c r="I227" s="7"/>
     </row>
-    <row r="228" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>45085</v>
       </c>
@@ -7173,7 +7174,7 @@
         <v>7</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G228" s="1">
         <v>260.39999999999998</v>
@@ -7183,7 +7184,7 @@
       </c>
       <c r="I228" s="7"/>
     </row>
-    <row r="229" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>45085</v>
       </c>
@@ -7201,7 +7202,7 @@
         <v>7</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G229" s="1">
         <v>245.2</v>
@@ -7211,7 +7212,7 @@
       </c>
       <c r="I229" s="7"/>
     </row>
-    <row r="230" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>45085</v>
       </c>
@@ -7229,7 +7230,7 @@
         <v>7</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G230" s="1">
         <v>178.5</v>
@@ -7239,7 +7240,7 @@
       </c>
       <c r="I230" s="7"/>
     </row>
-    <row r="231" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>45085</v>
       </c>
@@ -7257,7 +7258,7 @@
         <v>7</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G231" s="1">
         <v>195.7</v>
@@ -7267,7 +7268,7 @@
       </c>
       <c r="I231" s="7"/>
     </row>
-    <row r="232" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>45085</v>
       </c>
@@ -7285,7 +7286,7 @@
         <v>7</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G232" s="1">
         <v>237.5</v>
@@ -7295,7 +7296,7 @@
       </c>
       <c r="I232" s="7"/>
     </row>
-    <row r="233" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>45085</v>
       </c>
@@ -7313,7 +7314,7 @@
         <v>7</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G233" s="1">
         <v>203.4</v>
@@ -7323,7 +7324,7 @@
       </c>
       <c r="I233" s="7"/>
     </row>
-    <row r="234" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>45085</v>
       </c>
@@ -7341,7 +7342,7 @@
         <v>7</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G234" s="1">
         <v>256.10000000000002</v>
@@ -7351,7 +7352,7 @@
       </c>
       <c r="I234" s="7"/>
     </row>
-    <row r="235" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>45085</v>
       </c>
@@ -7369,7 +7370,7 @@
         <v>7</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G235" s="1">
         <v>155.6</v>
@@ -7379,7 +7380,7 @@
       </c>
       <c r="I235" s="7"/>
     </row>
-    <row r="236" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>45085</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>7</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G236" s="1">
         <v>12.5</v>
@@ -7407,7 +7408,7 @@
       </c>
       <c r="I236" s="7"/>
     </row>
-    <row r="237" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>45085</v>
       </c>
@@ -7425,7 +7426,7 @@
         <v>7</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G237" s="1">
         <v>183.4</v>
@@ -7435,7 +7436,7 @@
       </c>
       <c r="I237" s="7"/>
     </row>
-    <row r="238" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>45085</v>
       </c>
@@ -7453,7 +7454,7 @@
         <v>7</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1">
@@ -7461,7 +7462,7 @@
       </c>
       <c r="I238" s="7"/>
     </row>
-    <row r="239" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>45085</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>7</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G239" s="1">
         <v>211.5</v>
@@ -7489,7 +7490,7 @@
       </c>
       <c r="I239" s="7"/>
     </row>
-    <row r="240" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>45085</v>
       </c>
@@ -7507,7 +7508,7 @@
         <v>7</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1">
@@ -7515,7 +7516,7 @@
       </c>
       <c r="I240" s="7"/>
     </row>
-    <row r="241" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>45085</v>
       </c>
@@ -7533,7 +7534,7 @@
         <v>7</v>
       </c>
       <c r="F241" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G241" s="9">
         <v>244.1</v>
@@ -7560,7 +7561,7 @@
         <v>6</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G242" s="4"/>
       <c r="H242" s="4">
@@ -7586,7 +7587,7 @@
         <v>6</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G243" s="1">
         <v>341.8</v>
@@ -7614,7 +7615,7 @@
         <v>6</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G244" s="1">
         <v>323.2</v>
@@ -7642,7 +7643,7 @@
         <v>6</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G245" s="1">
         <v>326</v>
@@ -7670,7 +7671,7 @@
         <v>6</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G246" s="1">
         <v>362.3</v>
@@ -7698,7 +7699,7 @@
         <v>6</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G247" s="1">
         <v>489.1</v>
@@ -7726,7 +7727,7 @@
         <v>6</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G248" s="1">
         <v>235.9</v>
@@ -7754,7 +7755,7 @@
         <v>6</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G249" s="1">
         <v>505.5</v>
@@ -7782,7 +7783,7 @@
         <v>6</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G250" s="1"/>
       <c r="H250" s="1">
@@ -7808,7 +7809,7 @@
         <v>6</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G251" s="1">
         <v>416.2</v>
@@ -7836,7 +7837,7 @@
         <v>6</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G252" s="1">
         <v>306.60000000000002</v>
@@ -7864,7 +7865,7 @@
         <v>6</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G253" s="1">
         <v>295.60000000000002</v>
@@ -7892,7 +7893,7 @@
         <v>6</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G254" s="1">
         <v>344.7</v>
@@ -7920,7 +7921,7 @@
         <v>6</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G255" s="1">
         <v>321.8</v>
@@ -7948,7 +7949,7 @@
         <v>6</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G256" s="1">
         <v>448.7</v>
@@ -7976,7 +7977,7 @@
         <v>6</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G257" s="1">
         <v>394</v>
@@ -8004,7 +8005,7 @@
         <v>6</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G258" s="1">
         <v>347.8</v>
@@ -8032,7 +8033,7 @@
         <v>6</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G259" s="1">
         <v>238.6</v>
@@ -8060,7 +8061,7 @@
         <v>6</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G260" s="1">
         <v>351.3</v>
@@ -8088,7 +8089,7 @@
         <v>6</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G261" s="1">
         <v>387.7</v>
@@ -8116,7 +8117,7 @@
         <v>6</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G262" s="1">
         <v>487.3</v>
@@ -8144,7 +8145,7 @@
         <v>6</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G263" s="1">
         <v>343.4</v>
@@ -8172,7 +8173,7 @@
         <v>6</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G264" s="1">
         <v>270.5</v>
@@ -8200,7 +8201,7 @@
         <v>6</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G265" s="1">
         <v>336.7</v>
@@ -8228,7 +8229,7 @@
         <v>6</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G266" s="1">
         <v>393.9</v>
@@ -8256,7 +8257,7 @@
         <v>6</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G267" s="1">
         <v>171.4</v>
@@ -8284,7 +8285,7 @@
         <v>6</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G268" s="1">
         <v>490.7</v>
@@ -8312,7 +8313,7 @@
         <v>6</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G269" s="1"/>
       <c r="H269" s="1">
@@ -8338,7 +8339,7 @@
         <v>6</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G270" s="1">
         <v>407.1</v>
@@ -8366,7 +8367,7 @@
         <v>6</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G271" s="1">
         <v>390.2</v>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="I271" s="7"/>
     </row>
-    <row r="272" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>45099</v>
       </c>
@@ -8394,7 +8395,7 @@
         <v>7</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G272" s="1">
         <v>182.5</v>
@@ -8404,7 +8405,7 @@
       </c>
       <c r="I272" s="7"/>
     </row>
-    <row r="273" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>45099</v>
       </c>
@@ -8422,7 +8423,7 @@
         <v>7</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G273" s="1">
         <v>226</v>
@@ -8432,7 +8433,7 @@
       </c>
       <c r="I273" s="7"/>
     </row>
-    <row r="274" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>45099</v>
       </c>
@@ -8450,7 +8451,7 @@
         <v>7</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G274" s="1">
         <v>176.8</v>
@@ -8460,7 +8461,7 @@
       </c>
       <c r="I274" s="7"/>
     </row>
-    <row r="275" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>45099</v>
       </c>
@@ -8478,7 +8479,7 @@
         <v>7</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G275" s="1">
         <v>277.39999999999998</v>
@@ -8488,7 +8489,7 @@
       </c>
       <c r="I275" s="7"/>
     </row>
-    <row r="276" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>45099</v>
       </c>
@@ -8506,7 +8507,7 @@
         <v>7</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G276" s="1">
         <v>337.5</v>
@@ -8516,7 +8517,7 @@
       </c>
       <c r="I276" s="7"/>
     </row>
-    <row r="277" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>45099</v>
       </c>
@@ -8534,7 +8535,7 @@
         <v>7</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G277" s="1">
         <v>105.9</v>
@@ -8544,7 +8545,7 @@
       </c>
       <c r="I277" s="7"/>
     </row>
-    <row r="278" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>45099</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>7</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G278" s="1"/>
       <c r="H278" s="1">
@@ -8570,7 +8571,7 @@
       </c>
       <c r="I278" s="7"/>
     </row>
-    <row r="279" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>45099</v>
       </c>
@@ -8588,7 +8589,7 @@
         <v>7</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G279" s="1">
         <v>350</v>
@@ -8598,7 +8599,7 @@
       </c>
       <c r="I279" s="7"/>
     </row>
-    <row r="280" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>45099</v>
       </c>
@@ -8616,7 +8617,7 @@
         <v>7</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G280" s="1">
         <v>438.8</v>
@@ -8626,7 +8627,7 @@
       </c>
       <c r="I280" s="7"/>
     </row>
-    <row r="281" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>45099</v>
       </c>
@@ -8644,7 +8645,7 @@
         <v>7</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G281" s="1">
         <v>269.60000000000002</v>
@@ -8654,7 +8655,7 @@
       </c>
       <c r="I281" s="7"/>
     </row>
-    <row r="282" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>45099</v>
       </c>
@@ -8672,7 +8673,7 @@
         <v>7</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G282" s="1"/>
       <c r="H282" s="1">
@@ -8680,7 +8681,7 @@
       </c>
       <c r="I282" s="7"/>
     </row>
-    <row r="283" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>45099</v>
       </c>
@@ -8698,7 +8699,7 @@
         <v>7</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G283" s="1">
         <v>325.60000000000002</v>
@@ -8708,7 +8709,7 @@
       </c>
       <c r="I283" s="7"/>
     </row>
-    <row r="284" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>45099</v>
       </c>
@@ -8726,7 +8727,7 @@
         <v>7</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G284" s="1"/>
       <c r="H284" s="1">
@@ -8734,7 +8735,7 @@
       </c>
       <c r="I284" s="7"/>
     </row>
-    <row r="285" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>45099</v>
       </c>
@@ -8752,7 +8753,7 @@
         <v>7</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G285" s="1">
         <v>284.7</v>
@@ -8762,7 +8763,7 @@
       </c>
       <c r="I285" s="7"/>
     </row>
-    <row r="286" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>45099</v>
       </c>
@@ -8780,7 +8781,7 @@
         <v>7</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G286" s="1">
         <v>416.7</v>
@@ -8790,7 +8791,7 @@
       </c>
       <c r="I286" s="7"/>
     </row>
-    <row r="287" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>45099</v>
       </c>
@@ -8808,7 +8809,7 @@
         <v>7</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G287" s="1">
         <v>352.2</v>
@@ -8818,7 +8819,7 @@
       </c>
       <c r="I287" s="7"/>
     </row>
-    <row r="288" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>45099</v>
       </c>
@@ -8836,7 +8837,7 @@
         <v>7</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G288" s="1">
         <v>517.4</v>
@@ -8846,7 +8847,7 @@
       </c>
       <c r="I288" s="7"/>
     </row>
-    <row r="289" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>45099</v>
       </c>
@@ -8864,7 +8865,7 @@
         <v>7</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G289" s="1">
         <v>528.6</v>
@@ -8874,7 +8875,7 @@
       </c>
       <c r="I289" s="7"/>
     </row>
-    <row r="290" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>45099</v>
       </c>
@@ -8892,7 +8893,7 @@
         <v>7</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G290" s="1">
         <v>357.6</v>
@@ -8902,7 +8903,7 @@
       </c>
       <c r="I290" s="7"/>
     </row>
-    <row r="291" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>45099</v>
       </c>
@@ -8920,7 +8921,7 @@
         <v>7</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G291" s="1">
         <v>458.1</v>
@@ -8930,7 +8931,7 @@
       </c>
       <c r="I291" s="7"/>
     </row>
-    <row r="292" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>45099</v>
       </c>
@@ -8948,7 +8949,7 @@
         <v>7</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G292" s="1">
         <v>436.6</v>
@@ -8958,7 +8959,7 @@
       </c>
       <c r="I292" s="7"/>
     </row>
-    <row r="293" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>45099</v>
       </c>
@@ -8976,7 +8977,7 @@
         <v>7</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G293" s="1">
         <v>400.3</v>
@@ -8986,7 +8987,7 @@
       </c>
       <c r="I293" s="7"/>
     </row>
-    <row r="294" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>45099</v>
       </c>
@@ -9004,7 +9005,7 @@
         <v>7</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G294" s="1">
         <v>497.6</v>
@@ -9014,7 +9015,7 @@
       </c>
       <c r="I294" s="7"/>
     </row>
-    <row r="295" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>45099</v>
       </c>
@@ -9032,7 +9033,7 @@
         <v>7</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G295" s="1">
         <v>388.4</v>
@@ -9042,7 +9043,7 @@
       </c>
       <c r="I295" s="7"/>
     </row>
-    <row r="296" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>45099</v>
       </c>
@@ -9060,7 +9061,7 @@
         <v>7</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G296" s="1">
         <v>14.5</v>
@@ -9070,7 +9071,7 @@
       </c>
       <c r="I296" s="7"/>
     </row>
-    <row r="297" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>45099</v>
       </c>
@@ -9088,7 +9089,7 @@
         <v>7</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G297" s="1">
         <v>346.2</v>
@@ -9098,7 +9099,7 @@
       </c>
       <c r="I297" s="7"/>
     </row>
-    <row r="298" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
         <v>45099</v>
       </c>
@@ -9116,7 +9117,7 @@
         <v>7</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G298" s="1"/>
       <c r="H298" s="1">
@@ -9124,7 +9125,7 @@
       </c>
       <c r="I298" s="7"/>
     </row>
-    <row r="299" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>45099</v>
       </c>
@@ -9142,7 +9143,7 @@
         <v>7</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G299" s="1">
         <v>431.3</v>
@@ -9152,7 +9153,7 @@
       </c>
       <c r="I299" s="7"/>
     </row>
-    <row r="300" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>45099</v>
       </c>
@@ -9170,7 +9171,7 @@
         <v>7</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G300" s="1"/>
       <c r="H300" s="1">
@@ -9178,7 +9179,7 @@
       </c>
       <c r="I300" s="7"/>
     </row>
-    <row r="301" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
         <v>45099</v>
       </c>
@@ -9196,7 +9197,7 @@
         <v>7</v>
       </c>
       <c r="F301" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G301" s="9">
         <v>459.8</v>
@@ -9206,3347 +9207,19 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B302" s="1" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C302" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D302" s="1">
-        <v>70</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F302" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G302" s="1">
-        <v>146.5</v>
-      </c>
-      <c r="H302" s="1">
-        <v>0</v>
-      </c>
-      <c r="I302" s="7"/>
-    </row>
-    <row r="303" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B303" s="1" t="e">
-        <f t="shared" ref="B303:B331" si="4">B302+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C303" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D303" s="1">
-        <v>70</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F303" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G303" s="1">
-        <v>186.4</v>
-      </c>
-      <c r="H303" s="1">
-        <v>0</v>
-      </c>
-      <c r="I303" s="7"/>
-    </row>
-    <row r="304" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B304" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C304" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D304" s="1">
-        <v>70</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F304" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G304" s="1">
-        <v>156.6</v>
-      </c>
-      <c r="H304" s="1">
-        <v>0</v>
-      </c>
-      <c r="I304" s="7"/>
-    </row>
-    <row r="305" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B305" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C305" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D305" s="1">
-        <v>70</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F305" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G305" s="1">
-        <v>252</v>
-      </c>
-      <c r="H305" s="1">
-        <v>0</v>
-      </c>
-      <c r="I305" s="7"/>
-    </row>
-    <row r="306" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B306" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C306" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D306" s="1">
-        <v>70</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F306" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G306" s="1">
-        <v>342.8</v>
-      </c>
-      <c r="H306" s="1">
-        <v>0</v>
-      </c>
-      <c r="I306" s="7"/>
-    </row>
-    <row r="307" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B307" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C307" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D307" s="1">
-        <v>70</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F307" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G307" s="1">
-        <v>87.7</v>
-      </c>
-      <c r="H307" s="1">
-        <v>0</v>
-      </c>
-      <c r="I307" s="7"/>
-    </row>
-    <row r="308" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B308" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C308" s="16">
-        <v>45016</v>
-      </c>
-      <c r="D308" s="1">
-        <v>70</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F308" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G308" s="1"/>
-      <c r="H308" s="1">
-        <v>1</v>
-      </c>
-      <c r="I308" s="7"/>
-    </row>
-    <row r="309" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B309" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C309" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D309" s="1">
-        <v>70</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G309" s="1">
-        <v>297.2</v>
-      </c>
-      <c r="H309" s="1">
-        <v>0</v>
-      </c>
-      <c r="I309" s="7"/>
-    </row>
-    <row r="310" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B310" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C310" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D310" s="1">
-        <v>70</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G310" s="1">
-        <v>389.4</v>
-      </c>
-      <c r="H310" s="1">
-        <v>0</v>
-      </c>
-      <c r="I310" s="7"/>
-    </row>
-    <row r="311" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B311" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C311" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D311" s="1">
-        <v>70</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F311" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G311" s="1">
-        <v>188.5</v>
-      </c>
-      <c r="H311" s="1">
-        <v>0</v>
-      </c>
-      <c r="I311" s="7"/>
-    </row>
-    <row r="312" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B312" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C312" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D312" s="1">
-        <v>70</v>
-      </c>
-      <c r="E312" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G312" s="1"/>
-      <c r="H312" s="1">
-        <v>1</v>
-      </c>
-      <c r="I312" s="7"/>
-    </row>
-    <row r="313" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B313" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C313" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D313" s="1">
-        <v>70</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F313" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G313" s="1">
-        <v>346.7</v>
-      </c>
-      <c r="H313" s="1">
-        <v>0</v>
-      </c>
-      <c r="I313" s="7"/>
-    </row>
-    <row r="314" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B314" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C314" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D314" s="1">
-        <v>70</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F314" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G314" s="1"/>
-      <c r="H314" s="1">
-        <v>1</v>
-      </c>
-      <c r="I314" s="7"/>
-    </row>
-    <row r="315" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B315" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C315" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D315" s="1">
-        <v>70</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G315" s="1">
-        <v>319.2</v>
-      </c>
-      <c r="H315" s="1">
-        <v>0</v>
-      </c>
-      <c r="I315" s="7"/>
-    </row>
-    <row r="316" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B316" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C316" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D316" s="1">
-        <v>70</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F316" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G316" s="1">
-        <v>356.2</v>
-      </c>
-      <c r="H316" s="1">
-        <v>0</v>
-      </c>
-      <c r="I316" s="7"/>
-    </row>
-    <row r="317" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B317" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C317" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D317" s="1">
-        <v>70</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G317" s="1">
-        <v>321.10000000000002</v>
-      </c>
-      <c r="H317" s="1">
-        <v>0</v>
-      </c>
-      <c r="I317" s="7"/>
-    </row>
-    <row r="318" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B318" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C318" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D318" s="1">
-        <v>70</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G318" s="1">
-        <v>467.1</v>
-      </c>
-      <c r="H318" s="1">
-        <v>0</v>
-      </c>
-      <c r="I318" s="7"/>
-    </row>
-    <row r="319" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B319" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C319" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D319" s="1">
-        <v>70</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F319" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G319" s="1">
-        <v>544.70000000000005</v>
-      </c>
-      <c r="H319" s="1">
-        <v>0</v>
-      </c>
-      <c r="I319" s="7"/>
-    </row>
-    <row r="320" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B320" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C320" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D320" s="1">
-        <v>70</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F320" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G320" s="1">
-        <v>285.7</v>
-      </c>
-      <c r="H320" s="1">
-        <v>0</v>
-      </c>
-      <c r="I320" s="7"/>
-    </row>
-    <row r="321" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B321" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C321" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D321" s="1">
-        <v>70</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F321" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G321" s="1">
-        <v>380.6</v>
-      </c>
-      <c r="H321" s="1">
-        <v>0</v>
-      </c>
-      <c r="I321" s="7"/>
-    </row>
-    <row r="322" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B322" s="1" t="e">
-        <f>B321+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C322" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D322" s="1">
-        <v>70</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F322" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G322" s="1">
-        <v>325.10000000000002</v>
-      </c>
-      <c r="H322" s="1">
-        <v>0</v>
-      </c>
-      <c r="I322" s="7"/>
-    </row>
-    <row r="323" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B323" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C323" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D323" s="1">
-        <v>70</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G323" s="1">
-        <v>410.4</v>
-      </c>
-      <c r="H323" s="1">
-        <v>0</v>
-      </c>
-      <c r="I323" s="7"/>
-    </row>
-    <row r="324" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B324" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C324" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D324" s="1">
-        <v>70</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F324" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G324" s="1">
-        <v>382.8</v>
-      </c>
-      <c r="H324" s="1">
-        <v>0</v>
-      </c>
-      <c r="I324" s="7"/>
-    </row>
-    <row r="325" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B325" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C325" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D325" s="1">
-        <v>70</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F325" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G325" s="1">
-        <v>310.3</v>
-      </c>
-      <c r="H325" s="1">
-        <v>0</v>
-      </c>
-      <c r="I325" s="7"/>
-    </row>
-    <row r="326" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B326" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C326" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D326" s="1">
-        <v>70</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F326" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G326" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="H326" s="1">
-        <v>0</v>
-      </c>
-      <c r="I326" s="7"/>
-    </row>
-    <row r="327" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B327" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C327" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D327" s="1">
-        <v>70</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G327" s="1">
-        <v>352.8</v>
-      </c>
-      <c r="H327" s="1">
-        <v>0</v>
-      </c>
-      <c r="I327" s="7"/>
-    </row>
-    <row r="328" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B328" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C328" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D328" s="1">
-        <v>70</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G328" s="1"/>
-      <c r="H328" s="1">
-        <v>1</v>
-      </c>
-      <c r="I328" s="7"/>
-    </row>
-    <row r="329" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B329" s="1" t="e">
-        <f>B328+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C329" s="16">
-        <v>45016</v>
-      </c>
-      <c r="D329" s="1">
-        <v>70</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G329" s="1">
-        <v>381.6</v>
-      </c>
-      <c r="H329" s="1">
-        <v>0</v>
-      </c>
-      <c r="I329" s="7"/>
-    </row>
-    <row r="330" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="6">
-        <v>45113</v>
-      </c>
-      <c r="B330" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C330" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D330" s="1">
-        <v>70</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G330" s="1"/>
-      <c r="H330" s="1">
-        <v>1</v>
-      </c>
-      <c r="I330" s="7"/>
-    </row>
-    <row r="331" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="8">
-        <v>45113</v>
-      </c>
-      <c r="B331" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C331" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D331" s="9">
-        <v>70</v>
-      </c>
-      <c r="E331" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F331" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G331" s="9">
-        <v>430.2</v>
-      </c>
-      <c r="H331" s="9">
-        <v>0</v>
-      </c>
-      <c r="I331" s="10"/>
-    </row>
-    <row r="332" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B332" s="1" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C332" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D332" s="1">
-        <v>84</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F332" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G332" s="1">
-        <v>150.30000000000001</v>
-      </c>
-      <c r="H332" s="1">
-        <v>0</v>
-      </c>
-      <c r="I332" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B333" s="1" t="e">
-        <f t="shared" ref="B333:B361" si="5">B332+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C333" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D333" s="1">
-        <v>84</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F333" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G333" s="1">
-        <v>244.9</v>
-      </c>
-      <c r="H333" s="1">
-        <v>0</v>
-      </c>
-      <c r="I333" s="7"/>
-    </row>
-    <row r="334" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B334" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C334" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D334" s="1">
-        <v>84</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G334" s="1">
-        <v>234.1</v>
-      </c>
-      <c r="H334" s="1">
-        <v>0</v>
-      </c>
-      <c r="I334" s="7"/>
-    </row>
-    <row r="335" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B335" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C335" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D335" s="1">
-        <v>84</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F335" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G335" s="1">
-        <v>325.10000000000002</v>
-      </c>
-      <c r="H335" s="1">
-        <v>0</v>
-      </c>
-      <c r="I335" s="7"/>
-    </row>
-    <row r="336" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B336" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C336" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D336" s="1">
-        <v>84</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F336" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G336" s="1">
-        <v>384.1</v>
-      </c>
-      <c r="H336" s="1">
-        <v>0</v>
-      </c>
-      <c r="I336" s="7"/>
-    </row>
-    <row r="337" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B337" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C337" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D337" s="1">
-        <v>84</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F337" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G337" s="1">
-        <v>103.1</v>
-      </c>
-      <c r="H337" s="1">
-        <v>0</v>
-      </c>
-      <c r="I337" s="7"/>
-    </row>
-    <row r="338" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B338" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C338" s="16">
-        <v>45016</v>
-      </c>
-      <c r="D338" s="1">
-        <v>84</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G338" s="1"/>
-      <c r="H338" s="1">
-        <v>1</v>
-      </c>
-      <c r="I338" s="7"/>
-    </row>
-    <row r="339" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B339" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C339" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D339" s="1">
-        <v>84</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F339" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G339" s="1">
-        <v>265.60000000000002</v>
-      </c>
-      <c r="H339" s="1">
-        <v>0</v>
-      </c>
-      <c r="I339" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B340" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C340" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D340" s="1">
-        <v>84</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F340" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G340" s="1">
-        <v>590.6</v>
-      </c>
-      <c r="H340" s="1">
-        <v>0</v>
-      </c>
-      <c r="I340" s="7"/>
-    </row>
-    <row r="341" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B341" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C341" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D341" s="1">
-        <v>84</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F341" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G341" s="1">
-        <v>204.6</v>
-      </c>
-      <c r="H341" s="1">
-        <v>0</v>
-      </c>
-      <c r="I341" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B342" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C342" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D342" s="1">
-        <v>84</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F342" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G342" s="1"/>
-      <c r="H342" s="1">
-        <v>1</v>
-      </c>
-      <c r="I342" s="7"/>
-    </row>
-    <row r="343" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B343" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C343" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D343" s="1">
-        <v>84</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F343" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G343" s="1">
-        <v>333.8</v>
-      </c>
-      <c r="H343" s="1">
-        <v>0</v>
-      </c>
-      <c r="I343" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B344" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C344" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D344" s="1">
-        <v>84</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F344" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G344" s="1"/>
-      <c r="H344" s="1">
-        <v>1</v>
-      </c>
-      <c r="I344" s="7"/>
-    </row>
-    <row r="345" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B345" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C345" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D345" s="1">
-        <v>84</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F345" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G345" s="1">
-        <v>399.7</v>
-      </c>
-      <c r="H345" s="1">
-        <v>0</v>
-      </c>
-      <c r="I345" s="7"/>
-    </row>
-    <row r="346" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B346" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C346" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D346" s="1">
-        <v>84</v>
-      </c>
-      <c r="E346" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G346" s="1">
-        <v>466.9</v>
-      </c>
-      <c r="H346" s="1">
-        <v>0</v>
-      </c>
-      <c r="I346" s="7"/>
-    </row>
-    <row r="347" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B347" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C347" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D347" s="1">
-        <v>84</v>
-      </c>
-      <c r="E347" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F347" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G347" s="1">
-        <v>440.5</v>
-      </c>
-      <c r="H347" s="1">
-        <v>0</v>
-      </c>
-      <c r="I347" s="7"/>
-    </row>
-    <row r="348" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B348" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C348" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D348" s="1">
-        <v>84</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F348" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G348" s="1">
-        <v>533.29999999999995</v>
-      </c>
-      <c r="H348" s="1">
-        <v>0</v>
-      </c>
-      <c r="I348" s="7"/>
-    </row>
-    <row r="349" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B349" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C349" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D349" s="1">
-        <v>84</v>
-      </c>
-      <c r="E349" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F349" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G349" s="1">
-        <v>487.4</v>
-      </c>
-      <c r="H349" s="1">
-        <v>0</v>
-      </c>
-      <c r="I349" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B350" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C350" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D350" s="1">
-        <v>84</v>
-      </c>
-      <c r="E350" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F350" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G350" s="1">
-        <v>287.2</v>
-      </c>
-      <c r="H350" s="1">
-        <v>0</v>
-      </c>
-      <c r="I350" s="7"/>
-    </row>
-    <row r="351" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B351" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C351" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D351" s="1">
-        <v>84</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F351" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G351" s="1">
-        <v>528.6</v>
-      </c>
-      <c r="H351" s="1">
-        <v>0</v>
-      </c>
-      <c r="I351" s="7"/>
-    </row>
-    <row r="352" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B352" s="1" t="e">
-        <f>B351+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C352" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D352" s="1">
-        <v>84</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F352" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G352" s="1">
-        <v>330.1</v>
-      </c>
-      <c r="H352" s="1">
-        <v>0</v>
-      </c>
-      <c r="I352" s="7"/>
-    </row>
-    <row r="353" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B353" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C353" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D353" s="1">
-        <v>84</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G353" s="1">
-        <v>523.6</v>
-      </c>
-      <c r="H353" s="1">
-        <v>0</v>
-      </c>
-      <c r="I353" s="7"/>
-    </row>
-    <row r="354" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B354" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C354" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D354" s="1">
-        <v>84</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G354" s="1">
-        <v>545.79999999999995</v>
-      </c>
-      <c r="H354" s="1">
-        <v>0</v>
-      </c>
-      <c r="I354" s="7"/>
-    </row>
-    <row r="355" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B355" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C355" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D355" s="1">
-        <v>84</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F355" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G355" s="1">
-        <v>291.8</v>
-      </c>
-      <c r="H355" s="1">
-        <v>0</v>
-      </c>
-      <c r="I355" s="7"/>
-    </row>
-    <row r="356" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B356" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C356" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D356" s="1">
-        <v>84</v>
-      </c>
-      <c r="E356" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F356" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G356" s="1"/>
-      <c r="H356" s="1">
-        <v>1</v>
-      </c>
-      <c r="I356" s="7"/>
-    </row>
-    <row r="357" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B357" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C357" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D357" s="1">
-        <v>84</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F357" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G357" s="1">
-        <v>417.5</v>
-      </c>
-      <c r="H357" s="1">
-        <v>0</v>
-      </c>
-      <c r="I357" s="7"/>
-    </row>
-    <row r="358" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B358" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C358" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D358" s="1">
-        <v>84</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F358" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G358" s="1"/>
-      <c r="H358" s="1">
-        <v>1</v>
-      </c>
-      <c r="I358" s="7"/>
-    </row>
-    <row r="359" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B359" s="1" t="e">
-        <f>B358+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C359" s="16">
-        <v>45016</v>
-      </c>
-      <c r="D359" s="1">
-        <v>84</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F359" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G359" s="1">
-        <v>376.4</v>
-      </c>
-      <c r="H359" s="1">
-        <v>0</v>
-      </c>
-      <c r="I359" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="6">
-        <v>45127</v>
-      </c>
-      <c r="B360" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C360" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D360" s="1">
-        <v>84</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F360" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G360" s="1"/>
-      <c r="H360" s="1">
-        <v>1</v>
-      </c>
-      <c r="I360" s="7"/>
-    </row>
-    <row r="361" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="8">
-        <v>45127</v>
-      </c>
-      <c r="B361" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C361" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D361" s="9">
-        <v>84</v>
-      </c>
-      <c r="E361" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F361" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G361" s="9">
-        <v>377.6</v>
-      </c>
-      <c r="H361" s="9">
-        <v>0</v>
-      </c>
-      <c r="I361" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B362" s="1" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C362" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D362" s="1">
-        <v>98</v>
-      </c>
-      <c r="E362" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F362" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G362" s="1">
-        <v>239.1</v>
-      </c>
-      <c r="H362" s="1">
-        <v>0</v>
-      </c>
-      <c r="I362" s="7"/>
-    </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B363" s="1" t="e">
-        <f t="shared" ref="B363:B391" si="6">B362+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C363" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D363" s="1">
-        <v>98</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F363" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G363" s="1">
-        <v>396.4</v>
-      </c>
-      <c r="H363" s="1">
-        <v>0</v>
-      </c>
-      <c r="I363" s="7"/>
-    </row>
-    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B364" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C364" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D364" s="1">
-        <v>98</v>
-      </c>
-      <c r="E364" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F364" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G364" s="1">
-        <v>328.7</v>
-      </c>
-      <c r="H364" s="1">
-        <v>0</v>
-      </c>
-      <c r="I364" s="7"/>
-    </row>
-    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B365" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C365" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D365" s="1">
-        <v>98</v>
-      </c>
-      <c r="E365" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F365" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G365" s="1">
-        <v>409.8</v>
-      </c>
-      <c r="H365" s="1">
-        <v>0</v>
-      </c>
-      <c r="I365" s="7"/>
-    </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B366" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C366" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D366" s="1">
-        <v>98</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G366" s="1">
-        <v>622.20000000000005</v>
-      </c>
-      <c r="H366" s="1">
-        <v>0</v>
-      </c>
-      <c r="I366" s="7"/>
-    </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B367" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C367" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D367" s="1">
-        <v>98</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F367" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G367" s="1">
-        <v>155</v>
-      </c>
-      <c r="H367" s="1">
-        <v>0</v>
-      </c>
-      <c r="I367" s="7"/>
-    </row>
-    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B368" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C368" s="16">
-        <v>45016</v>
-      </c>
-      <c r="D368" s="1">
-        <v>98</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G368" s="1"/>
-      <c r="H368" s="1">
-        <v>1</v>
-      </c>
-      <c r="I368" s="7"/>
-    </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B369" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C369" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D369" s="1">
-        <v>98</v>
-      </c>
-      <c r="E369" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F369" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G369" s="1">
-        <v>420.3</v>
-      </c>
-      <c r="H369" s="1">
-        <v>0</v>
-      </c>
-      <c r="I369" s="7"/>
-    </row>
-    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B370" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C370" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D370" s="1">
-        <v>98</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F370" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G370" s="1">
-        <v>752.1</v>
-      </c>
-      <c r="H370" s="1">
-        <v>0</v>
-      </c>
-      <c r="I370" s="7"/>
-    </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B371" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C371" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D371" s="1">
-        <v>98</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F371" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G371" s="1">
-        <v>295.10000000000002</v>
-      </c>
-      <c r="H371" s="1">
-        <v>0</v>
-      </c>
-      <c r="I371" s="7"/>
-    </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B372" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C372" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D372" s="1">
-        <v>98</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F372" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G372" s="1"/>
-      <c r="H372" s="1">
-        <v>1</v>
-      </c>
-      <c r="I372" s="7"/>
-    </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B373" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C373" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D373" s="1">
-        <v>98</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F373" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G373" s="1">
-        <v>448.1</v>
-      </c>
-      <c r="H373" s="1">
-        <v>0</v>
-      </c>
-      <c r="I373" s="7"/>
-    </row>
-    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B374" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C374" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D374" s="1">
-        <v>98</v>
-      </c>
-      <c r="E374" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F374" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G374" s="1"/>
-      <c r="H374" s="1">
-        <v>1</v>
-      </c>
-      <c r="I374" s="7"/>
-    </row>
-    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B375" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C375" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D375" s="1">
-        <v>98</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F375" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G375" s="1">
-        <v>542</v>
-      </c>
-      <c r="H375" s="1">
-        <v>0</v>
-      </c>
-      <c r="I375" s="7"/>
-    </row>
-    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B376" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C376" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D376" s="1">
-        <v>98</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F376" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G376" s="1">
-        <v>665.4</v>
-      </c>
-      <c r="H376" s="1">
-        <v>0</v>
-      </c>
-      <c r="I376" s="7"/>
-    </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B377" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C377" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D377" s="1">
-        <v>98</v>
-      </c>
-      <c r="E377" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F377" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G377" s="1">
-        <v>597.79999999999995</v>
-      </c>
-      <c r="H377" s="1">
-        <v>0</v>
-      </c>
-      <c r="I377" s="7"/>
-    </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B378" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C378" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D378" s="1">
-        <v>98</v>
-      </c>
-      <c r="E378" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F378" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G378" s="1">
-        <v>748.3</v>
-      </c>
-      <c r="H378" s="1">
-        <v>0</v>
-      </c>
-      <c r="I378" s="7"/>
-    </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B379" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C379" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D379" s="1">
-        <v>98</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F379" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G379" s="1">
-        <v>621.20000000000005</v>
-      </c>
-      <c r="H379" s="1">
-        <v>0</v>
-      </c>
-      <c r="I379" s="7"/>
-    </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B380" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C380" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D380" s="1">
-        <v>98</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F380" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G380" s="1">
-        <v>346.5</v>
-      </c>
-      <c r="H380" s="1">
-        <v>0</v>
-      </c>
-      <c r="I380" s="7"/>
-    </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B381" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C381" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D381" s="1">
-        <v>98</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F381" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G381" s="1">
-        <v>613.5</v>
-      </c>
-      <c r="H381" s="1">
-        <v>0</v>
-      </c>
-      <c r="I381" s="7"/>
-    </row>
-    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B382" s="1" t="e">
-        <f>B381+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C382" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D382" s="1">
-        <v>98</v>
-      </c>
-      <c r="E382" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F382" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G382" s="1">
-        <v>496.5</v>
-      </c>
-      <c r="H382" s="1">
-        <v>0</v>
-      </c>
-      <c r="I382" s="7"/>
-    </row>
-    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B383" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C383" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D383" s="1">
-        <v>98</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F383" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G383" s="1">
-        <v>705.2</v>
-      </c>
-      <c r="H383" s="1">
-        <v>0</v>
-      </c>
-      <c r="I383" s="7"/>
-    </row>
-    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B384" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C384" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D384" s="1">
-        <v>98</v>
-      </c>
-      <c r="E384" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F384" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G384" s="1">
-        <v>748.2</v>
-      </c>
-      <c r="H384" s="1">
-        <v>0</v>
-      </c>
-      <c r="I384" s="7"/>
-    </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B385" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C385" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D385" s="1">
-        <v>98</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F385" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G385" s="1">
-        <v>481.9</v>
-      </c>
-      <c r="H385" s="1">
-        <v>0</v>
-      </c>
-      <c r="I385" s="7"/>
-    </row>
-    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B386" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C386" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D386" s="1">
-        <v>98</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F386" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G386" s="1"/>
-      <c r="H386" s="1">
-        <v>1</v>
-      </c>
-      <c r="I386" s="7"/>
-    </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B387" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C387" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D387" s="1">
-        <v>98</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F387" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G387" s="1">
-        <v>606.79999999999995</v>
-      </c>
-      <c r="H387" s="1">
-        <v>0</v>
-      </c>
-      <c r="I387" s="7"/>
-    </row>
-    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B388" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C388" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D388" s="1">
-        <v>98</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F388" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G388" s="1"/>
-      <c r="H388" s="1">
-        <v>1</v>
-      </c>
-      <c r="I388" s="7"/>
-    </row>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B389" s="1" t="e">
-        <f>B388+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C389" s="16">
-        <v>45016</v>
-      </c>
-      <c r="D389" s="1">
-        <v>98</v>
-      </c>
-      <c r="E389" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F389" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G389" s="1">
-        <v>614.1</v>
-      </c>
-      <c r="H389" s="1">
-        <v>0</v>
-      </c>
-      <c r="I389" s="7"/>
-    </row>
-    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B390" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C390" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D390" s="1">
-        <v>98</v>
-      </c>
-      <c r="E390" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F390" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G390" s="1"/>
-      <c r="H390" s="1">
-        <v>1</v>
-      </c>
-      <c r="I390" s="7"/>
-    </row>
-    <row r="391" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="8">
-        <v>45141</v>
-      </c>
-      <c r="B391" s="9" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="C391" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D391" s="9">
-        <v>98</v>
-      </c>
-      <c r="E391" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F391" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G391" s="9">
-        <v>563.1</v>
-      </c>
-      <c r="H391" s="9">
-        <v>0</v>
-      </c>
-      <c r="I391" s="10"/>
-    </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B392" s="1">
-        <v>31</v>
-      </c>
-      <c r="C392" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D392" s="1">
-        <v>112</v>
-      </c>
-      <c r="E392" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F392" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G392" s="1">
-        <v>372.8</v>
-      </c>
-      <c r="H392" s="1">
-        <v>0</v>
-      </c>
-      <c r="I392" s="7"/>
-    </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B393" s="1">
-        <f t="shared" ref="B393:B421" si="7">B392+1</f>
-        <v>32</v>
-      </c>
-      <c r="C393" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D393" s="1">
-        <v>112</v>
-      </c>
-      <c r="E393" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F393" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G393" s="1">
-        <v>647.4</v>
-      </c>
-      <c r="H393" s="1">
-        <v>0</v>
-      </c>
-      <c r="I393" s="7"/>
-    </row>
-    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B394" s="1">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="C394" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D394" s="1">
-        <v>112</v>
-      </c>
-      <c r="E394" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F394" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G394" s="1">
-        <v>484</v>
-      </c>
-      <c r="H394" s="1">
-        <v>0</v>
-      </c>
-      <c r="I394" s="7"/>
-    </row>
-    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B395" s="1">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="C395" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D395" s="1">
-        <v>112</v>
-      </c>
-      <c r="E395" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F395" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G395" s="1">
-        <v>617.79999999999995</v>
-      </c>
-      <c r="H395" s="1">
-        <v>0</v>
-      </c>
-      <c r="I395" s="7"/>
-    </row>
-    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B396" s="1">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="C396" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D396" s="1">
-        <v>112</v>
-      </c>
-      <c r="E396" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F396" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G396" s="1">
-        <v>1022.8</v>
-      </c>
-      <c r="H396" s="1">
-        <v>0</v>
-      </c>
-      <c r="I396" s="7"/>
-    </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B397" s="1">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="C397" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D397" s="1">
-        <v>112</v>
-      </c>
-      <c r="E397" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F397" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G397" s="1">
-        <v>216.5</v>
-      </c>
-      <c r="H397" s="1">
-        <v>0</v>
-      </c>
-      <c r="I397" s="7"/>
-    </row>
-    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B398" s="1">
-        <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="C398" s="16">
-        <v>45016</v>
-      </c>
-      <c r="D398" s="1">
-        <v>112</v>
-      </c>
-      <c r="E398" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F398" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G398" s="1"/>
-      <c r="H398" s="1">
-        <v>1</v>
-      </c>
-      <c r="I398" s="7"/>
-    </row>
-    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B399" s="1">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="C399" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D399" s="1">
-        <v>112</v>
-      </c>
-      <c r="E399" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F399" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G399" s="1">
-        <v>594.70000000000005</v>
-      </c>
-      <c r="H399" s="1">
-        <v>0</v>
-      </c>
-      <c r="I399" s="7"/>
-    </row>
-    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B400" s="1">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="C400" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D400" s="1">
-        <v>112</v>
-      </c>
-      <c r="E400" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F400" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G400" s="1">
-        <v>1129.2</v>
-      </c>
-      <c r="H400" s="1">
-        <v>0</v>
-      </c>
-      <c r="I400" s="7"/>
-    </row>
-    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B401" s="1">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="C401" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D401" s="1">
-        <v>112</v>
-      </c>
-      <c r="E401" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F401" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G401" s="1">
-        <v>495.9</v>
-      </c>
-      <c r="H401" s="1">
-        <v>0</v>
-      </c>
-      <c r="I401" s="7"/>
-    </row>
-    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B402" s="1">
-        <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-      <c r="C402" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D402" s="1">
-        <v>112</v>
-      </c>
-      <c r="E402" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F402" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G402" s="1"/>
-      <c r="H402" s="1">
-        <v>1</v>
-      </c>
-      <c r="I402" s="7"/>
-    </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B403" s="1">
-        <f t="shared" si="7"/>
-        <v>42</v>
-      </c>
-      <c r="C403" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D403" s="1">
-        <v>112</v>
-      </c>
-      <c r="E403" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F403" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G403" s="1">
-        <v>627.9</v>
-      </c>
-      <c r="H403" s="1">
-        <v>0</v>
-      </c>
-      <c r="I403" s="7"/>
-    </row>
-    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B404" s="1">
-        <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-      <c r="C404" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D404" s="1">
-        <v>112</v>
-      </c>
-      <c r="E404" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F404" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G404" s="1"/>
-      <c r="H404" s="1">
-        <v>1</v>
-      </c>
-      <c r="I404" s="7"/>
-    </row>
-    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B405" s="1">
-        <f t="shared" si="7"/>
-        <v>44</v>
-      </c>
-      <c r="C405" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D405" s="1">
-        <v>112</v>
-      </c>
-      <c r="E405" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F405" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G405" s="1">
-        <v>672.1</v>
-      </c>
-      <c r="H405" s="1">
-        <v>0</v>
-      </c>
-      <c r="I405" s="7"/>
-    </row>
-    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B406" s="1">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="C406" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D406" s="1">
-        <v>112</v>
-      </c>
-      <c r="E406" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G406" s="1">
-        <v>774.3</v>
-      </c>
-      <c r="H406" s="1">
-        <v>0</v>
-      </c>
-      <c r="I406" s="7"/>
-    </row>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B407" s="1">
-        <f t="shared" si="7"/>
-        <v>46</v>
-      </c>
-      <c r="C407" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D407" s="1">
-        <v>112</v>
-      </c>
-      <c r="E407" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F407" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G407" s="1">
-        <v>887.3</v>
-      </c>
-      <c r="H407" s="1">
-        <v>0</v>
-      </c>
-      <c r="I407" s="7"/>
-    </row>
-    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B408" s="1">
-        <f t="shared" si="7"/>
-        <v>47</v>
-      </c>
-      <c r="C408" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D408" s="1">
-        <v>112</v>
-      </c>
-      <c r="E408" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F408" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G408" s="1">
-        <v>1009.8</v>
-      </c>
-      <c r="H408" s="1">
-        <v>0</v>
-      </c>
-      <c r="I408" s="7"/>
-    </row>
-    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B409" s="1">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="C409" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D409" s="1">
-        <v>112</v>
-      </c>
-      <c r="E409" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F409" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G409" s="1">
-        <v>911.5</v>
-      </c>
-      <c r="H409" s="1">
-        <v>0</v>
-      </c>
-      <c r="I409" s="7"/>
-    </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B410" s="1">
-        <f t="shared" si="7"/>
-        <v>49</v>
-      </c>
-      <c r="C410" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D410" s="1">
-        <v>112</v>
-      </c>
-      <c r="E410" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F410" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G410" s="1">
-        <v>599.9</v>
-      </c>
-      <c r="H410" s="1">
-        <v>0</v>
-      </c>
-      <c r="I410" s="7"/>
-    </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B411" s="1">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="C411" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D411" s="1">
-        <v>112</v>
-      </c>
-      <c r="E411" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F411" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G411" s="1">
-        <v>786.7</v>
-      </c>
-      <c r="H411" s="1">
-        <v>0</v>
-      </c>
-      <c r="I411" s="7"/>
-    </row>
-    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B412" s="1">
-        <f>B411+1</f>
-        <v>51</v>
-      </c>
-      <c r="C412" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D412" s="1">
-        <v>112</v>
-      </c>
-      <c r="E412" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F412" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G412" s="1">
-        <v>660.4</v>
-      </c>
-      <c r="H412" s="1">
-        <v>0</v>
-      </c>
-      <c r="I412" s="7"/>
-    </row>
-    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B413" s="1">
-        <f t="shared" si="7"/>
-        <v>52</v>
-      </c>
-      <c r="C413" s="16">
-        <v>45020</v>
-      </c>
-      <c r="D413" s="1">
-        <v>112</v>
-      </c>
-      <c r="E413" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F413" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G413" s="1">
-        <v>961.5</v>
-      </c>
-      <c r="H413" s="1">
-        <v>0</v>
-      </c>
-      <c r="I413" s="7"/>
-    </row>
-    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B414" s="1">
-        <f t="shared" si="7"/>
-        <v>53</v>
-      </c>
-      <c r="C414" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D414" s="1">
-        <v>112</v>
-      </c>
-      <c r="E414" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F414" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G414" s="1">
-        <v>693.5</v>
-      </c>
-      <c r="H414" s="1">
-        <v>0</v>
-      </c>
-      <c r="I414" s="7"/>
-    </row>
-    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B415" s="1">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="C415" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D415" s="1">
-        <v>112</v>
-      </c>
-      <c r="E415" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F415" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G415" s="1">
-        <v>644.4</v>
-      </c>
-      <c r="H415" s="1">
-        <v>0</v>
-      </c>
-      <c r="I415" s="7"/>
-    </row>
-    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B416" s="1">
-        <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-      <c r="C416" s="16">
-        <v>45022</v>
-      </c>
-      <c r="D416" s="1">
-        <v>112</v>
-      </c>
-      <c r="E416" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F416" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G416" s="1"/>
-      <c r="H416" s="1">
-        <v>1</v>
-      </c>
-      <c r="I416" s="7"/>
-    </row>
-    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B417" s="1">
-        <f t="shared" si="7"/>
-        <v>56</v>
-      </c>
-      <c r="C417" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D417" s="1">
-        <v>112</v>
-      </c>
-      <c r="E417" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F417" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G417" s="1">
-        <v>732.7</v>
-      </c>
-      <c r="H417" s="1">
-        <v>0</v>
-      </c>
-      <c r="I417" s="7"/>
-    </row>
-    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B418" s="1">
-        <f t="shared" si="7"/>
-        <v>57</v>
-      </c>
-      <c r="C418" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D418" s="1">
-        <v>112</v>
-      </c>
-      <c r="E418" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F418" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G418" s="1"/>
-      <c r="H418" s="1">
-        <v>1</v>
-      </c>
-      <c r="I418" s="7"/>
-    </row>
-    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B419" s="1">
-        <f>B418+1</f>
-        <v>58</v>
-      </c>
-      <c r="C419" s="16">
-        <v>45016</v>
-      </c>
-      <c r="D419" s="1">
-        <v>112</v>
-      </c>
-      <c r="E419" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F419" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G419" s="1">
-        <v>907.7</v>
-      </c>
-      <c r="H419" s="1">
-        <v>0</v>
-      </c>
-      <c r="I419" s="7"/>
-    </row>
-    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B420" s="1">
-        <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-      <c r="C420" s="16">
-        <v>45023</v>
-      </c>
-      <c r="D420" s="1">
-        <v>112</v>
-      </c>
-      <c r="E420" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F420" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G420" s="1"/>
-      <c r="H420" s="1">
-        <v>1</v>
-      </c>
-      <c r="I420" s="7"/>
-    </row>
-    <row r="421" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="8">
-        <v>45155</v>
-      </c>
-      <c r="B421" s="9">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="C421" s="16">
-        <v>45021</v>
-      </c>
-      <c r="D421" s="9">
-        <v>112</v>
-      </c>
-      <c r="E421" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F421" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G421" s="9">
-        <v>866</v>
-      </c>
-      <c r="H421" s="9">
-        <v>0</v>
-      </c>
-      <c r="I421" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I421" xr:uid="{98193405-CF40-6248-94AF-85C31E4AA383}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Ctrl"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I301" xr:uid="{98193405-CF40-6248-94AF-85C31E4AA383}"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A61" xr:uid="{6BDD9604-9473-214A-8A3A-211620EE854D}">
       <formula1>45043</formula1>
       <formula2>45412</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C421" xr:uid="{9FCD2F11-F631-4746-B9E3-9BB6E2B93C26}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C301" xr:uid="{9FCD2F11-F631-4746-B9E3-9BB6E2B93C26}">
       <formula1>45016</formula1>
       <formula2>45023</formula2>
     </dataValidation>
@@ -12591,7 +9264,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">

--- a/data/Data_growth_EPX_DMX.xlsx
+++ b/data/Data_growth_EPX_DMX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisagollot/Library/CloudStorage/OneDrive-Personnel/Documents/0_These/0_RepoGit/Ew-Growth-IdVar/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D55F342-6C6E-D94A-BD2C-C481A873B691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124D9852-07B3-CA46-85B3-3881C408610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30600" yWindow="-3000" windowWidth="25860" windowHeight="15900" activeTab="1" xr2:uid="{B6F91018-2402-2E49-89F8-0A687BF48367}"/>
   </bookViews>

--- a/data/Data_growth_EPX_DMX.xlsx
+++ b/data/Data_growth_EPX_DMX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisagollot/Library/CloudStorage/OneDrive-Personnel/Documents/0_These/0_RepoGit/Ew-Growth-IdVar/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124D9852-07B3-CA46-85B3-3881C408610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C104E3-ADCD-144A-B330-07DEBFC96F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30600" yWindow="-3000" windowWidth="25860" windowHeight="15900" activeTab="1" xr2:uid="{B6F91018-2402-2E49-89F8-0A687BF48367}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{B6F91018-2402-2E49-89F8-0A687BF48367}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="8" r:id="rId1"/>
@@ -875,10 +875,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98193405-CF40-6248-94AF-85C31E4AA383}">
-  <dimension ref="A1:K301"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L315" sqref="L315"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -894,7 +895,7 @@
     <col min="9" max="9" width="40.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -923,7 +924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>45063</v>
       </c>
@@ -950,7 +951,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>45063</v>
       </c>
@@ -977,7 +978,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>45063</v>
       </c>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>45063</v>
       </c>
@@ -1031,7 +1032,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>45063</v>
       </c>
@@ -1058,7 +1059,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>45063</v>
       </c>
@@ -1085,7 +1086,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>45063</v>
       </c>
@@ -1111,8 +1112,12 @@
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f>AVERAGE(G2:G61)</f>
+        <v>12.424999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>45063</v>
       </c>
@@ -1139,7 +1144,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>45063</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>45063</v>
       </c>
@@ -1197,7 +1202,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>45063</v>
       </c>
@@ -1224,7 +1229,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>45063</v>
       </c>
@@ -1251,7 +1256,7 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>45063</v>
       </c>
@@ -1278,7 +1283,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>45063</v>
       </c>
@@ -1305,7 +1310,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>45063</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>45043</v>
       </c>
@@ -2549,7 +2554,7 @@
       </c>
       <c r="I61" s="13"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>45077</v>
       </c>
@@ -2574,7 +2579,7 @@
       </c>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>45077</v>
       </c>
@@ -2602,7 +2607,7 @@
       </c>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>45077</v>
       </c>
@@ -2630,7 +2635,7 @@
       </c>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>45077</v>
       </c>
@@ -2658,7 +2663,7 @@
       </c>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>45077</v>
       </c>
@@ -2686,7 +2691,7 @@
       </c>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>45077</v>
       </c>
@@ -2714,7 +2719,7 @@
       </c>
       <c r="I67" s="7"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>45077</v>
       </c>
@@ -2742,7 +2747,7 @@
       </c>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>45077</v>
       </c>
@@ -2770,7 +2775,7 @@
       </c>
       <c r="I69" s="7"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>45077</v>
       </c>
@@ -2796,7 +2801,7 @@
       </c>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>45077</v>
       </c>
@@ -2824,7 +2829,7 @@
       </c>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>45077</v>
       </c>
@@ -2852,7 +2857,7 @@
       </c>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>45077</v>
       </c>
@@ -2880,7 +2885,7 @@
       </c>
       <c r="I73" s="7"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>45077</v>
       </c>
@@ -2908,7 +2913,7 @@
       </c>
       <c r="I74" s="7"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>45077</v>
       </c>
@@ -2936,7 +2941,7 @@
       </c>
       <c r="I75" s="7"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>45077</v>
       </c>
@@ -2964,7 +2969,7 @@
       </c>
       <c r="I76" s="7"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>45077</v>
       </c>
@@ -2992,7 +2997,7 @@
       </c>
       <c r="I77" s="7"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>45077</v>
       </c>
@@ -3020,7 +3025,7 @@
       </c>
       <c r="I78" s="7"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>45077</v>
       </c>
@@ -3048,7 +3053,7 @@
       </c>
       <c r="I79" s="7"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>45077</v>
       </c>
@@ -3076,7 +3081,7 @@
       </c>
       <c r="I80" s="7"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>45077</v>
       </c>
@@ -3104,7 +3109,7 @@
       </c>
       <c r="I81" s="7"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>45077</v>
       </c>
@@ -3132,7 +3137,7 @@
       </c>
       <c r="I82" s="7"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>45077</v>
       </c>
@@ -3160,7 +3165,7 @@
       </c>
       <c r="I83" s="7"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>45077</v>
       </c>
@@ -3188,7 +3193,7 @@
       </c>
       <c r="I84" s="7"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>45077</v>
       </c>
@@ -3216,7 +3221,7 @@
       </c>
       <c r="I85" s="7"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>45077</v>
       </c>
@@ -3244,7 +3249,7 @@
       </c>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>45077</v>
       </c>
@@ -3272,7 +3277,7 @@
       </c>
       <c r="I87" s="7"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>45077</v>
       </c>
@@ -3300,7 +3305,7 @@
       </c>
       <c r="I88" s="7"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>45077</v>
       </c>
@@ -3326,7 +3331,7 @@
       </c>
       <c r="I89" s="7"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>45077</v>
       </c>
@@ -3354,7 +3359,7 @@
       </c>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>45077</v>
       </c>
@@ -3382,7 +3387,7 @@
       </c>
       <c r="I91" s="7"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>45057</v>
       </c>
@@ -3410,7 +3415,7 @@
       </c>
       <c r="I92" s="7"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>45057</v>
       </c>
@@ -3438,7 +3443,7 @@
       </c>
       <c r="I93" s="7"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>45057</v>
       </c>
@@ -3464,7 +3469,7 @@
       </c>
       <c r="I94" s="7"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>45057</v>
       </c>
@@ -3492,7 +3497,7 @@
       </c>
       <c r="I95" s="7"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>45057</v>
       </c>
@@ -3520,7 +3525,7 @@
       </c>
       <c r="I96" s="7"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>45057</v>
       </c>
@@ -3548,7 +3553,7 @@
       </c>
       <c r="I97" s="7"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>45057</v>
       </c>
@@ -3576,7 +3581,7 @@
       </c>
       <c r="I98" s="7"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>45057</v>
       </c>
@@ -3604,7 +3609,7 @@
       </c>
       <c r="I99" s="7"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>45057</v>
       </c>
@@ -3632,7 +3637,7 @@
       </c>
       <c r="I100" s="7"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>45057</v>
       </c>
@@ -3660,7 +3665,7 @@
       </c>
       <c r="I101" s="7"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>45057</v>
       </c>
@@ -3686,7 +3691,7 @@
       </c>
       <c r="I102" s="7"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>45057</v>
       </c>
@@ -3714,7 +3719,7 @@
       </c>
       <c r="I103" s="7"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>45057</v>
       </c>
@@ -3742,7 +3747,7 @@
       </c>
       <c r="I104" s="7"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>45057</v>
       </c>
@@ -3770,7 +3775,7 @@
       </c>
       <c r="I105" s="7"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>45057</v>
       </c>
@@ -3798,7 +3803,7 @@
       </c>
       <c r="I106" s="7"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>45057</v>
       </c>
@@ -3826,7 +3831,7 @@
       </c>
       <c r="I107" s="7"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>45057</v>
       </c>
@@ -3854,7 +3859,7 @@
       </c>
       <c r="I108" s="7"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>45057</v>
       </c>
@@ -3882,7 +3887,7 @@
       </c>
       <c r="I109" s="7"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>45057</v>
       </c>
@@ -3910,7 +3915,7 @@
       </c>
       <c r="I110" s="7"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>45057</v>
       </c>
@@ -3938,7 +3943,7 @@
       </c>
       <c r="I111" s="7"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>45057</v>
       </c>
@@ -3966,7 +3971,7 @@
       </c>
       <c r="I112" s="7"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>45057</v>
       </c>
@@ -3994,7 +3999,7 @@
       </c>
       <c r="I113" s="7"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>45057</v>
       </c>
@@ -4022,7 +4027,7 @@
       </c>
       <c r="I114" s="7"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>45057</v>
       </c>
@@ -4050,7 +4055,7 @@
       </c>
       <c r="I115" s="7"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>45057</v>
       </c>
@@ -4078,7 +4083,7 @@
       </c>
       <c r="I116" s="7"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>45057</v>
       </c>
@@ -4106,7 +4111,7 @@
       </c>
       <c r="I117" s="7"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>45057</v>
       </c>
@@ -4132,7 +4137,7 @@
       </c>
       <c r="I118" s="7"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>45057</v>
       </c>
@@ -4160,7 +4165,7 @@
       </c>
       <c r="I119" s="7"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>45057</v>
       </c>
@@ -4186,7 +4191,7 @@
       </c>
       <c r="I120" s="7"/>
     </row>
-    <row r="121" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>45057</v>
       </c>
@@ -4214,7 +4219,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
         <v>45091</v>
       </c>
@@ -4239,7 +4244,7 @@
       </c>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="16">
         <v>45091</v>
       </c>
@@ -4267,7 +4272,7 @@
       </c>
       <c r="I123" s="7"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16">
         <v>45091</v>
       </c>
@@ -4295,7 +4300,7 @@
       </c>
       <c r="I124" s="7"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="16">
         <v>45091</v>
       </c>
@@ -4323,7 +4328,7 @@
       </c>
       <c r="I125" s="7"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="16">
         <v>45091</v>
       </c>
@@ -4351,7 +4356,7 @@
       </c>
       <c r="I126" s="7"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16">
         <v>45091</v>
       </c>
@@ -4379,7 +4384,7 @@
       </c>
       <c r="I127" s="7"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="16">
         <v>45091</v>
       </c>
@@ -4407,7 +4412,7 @@
       </c>
       <c r="I128" s="7"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16">
         <v>45091</v>
       </c>
@@ -4435,7 +4440,7 @@
       </c>
       <c r="I129" s="7"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="16">
         <v>45091</v>
       </c>
@@ -4461,7 +4466,7 @@
       </c>
       <c r="I130" s="7"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16">
         <v>45091</v>
       </c>
@@ -4489,7 +4494,7 @@
       </c>
       <c r="I131" s="7"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="16">
         <v>45091</v>
       </c>
@@ -4517,7 +4522,7 @@
       </c>
       <c r="I132" s="7"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="16">
         <v>45091</v>
       </c>
@@ -4545,7 +4550,7 @@
       </c>
       <c r="I133" s="7"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="16">
         <v>45091</v>
       </c>
@@ -4573,7 +4578,7 @@
       </c>
       <c r="I134" s="7"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="16">
         <v>45091</v>
       </c>
@@ -4601,7 +4606,7 @@
       </c>
       <c r="I135" s="7"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="16">
         <v>45091</v>
       </c>
@@ -4629,7 +4634,7 @@
       </c>
       <c r="I136" s="7"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="16">
         <v>45091</v>
       </c>
@@ -4657,7 +4662,7 @@
       </c>
       <c r="I137" s="7"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="16">
         <v>45091</v>
       </c>
@@ -4685,7 +4690,7 @@
       </c>
       <c r="I138" s="7"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="16">
         <v>45091</v>
       </c>
@@ -4713,7 +4718,7 @@
       </c>
       <c r="I139" s="7"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="16">
         <v>45091</v>
       </c>
@@ -4741,7 +4746,7 @@
       </c>
       <c r="I140" s="7"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="16">
         <v>45091</v>
       </c>
@@ -4769,7 +4774,7 @@
       </c>
       <c r="I141" s="7"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="16">
         <v>45091</v>
       </c>
@@ -4797,7 +4802,7 @@
       </c>
       <c r="I142" s="7"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="16">
         <v>45091</v>
       </c>
@@ -4825,7 +4830,7 @@
       </c>
       <c r="I143" s="7"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="16">
         <v>45091</v>
       </c>
@@ -4853,7 +4858,7 @@
       </c>
       <c r="I144" s="7"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="16">
         <v>45091</v>
       </c>
@@ -4881,7 +4886,7 @@
       </c>
       <c r="I145" s="7"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="16">
         <v>45091</v>
       </c>
@@ -4909,7 +4914,7 @@
       </c>
       <c r="I146" s="7"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="16">
         <v>45091</v>
       </c>
@@ -4937,7 +4942,7 @@
       </c>
       <c r="I147" s="7"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="16">
         <v>45091</v>
       </c>
@@ -4965,7 +4970,7 @@
       </c>
       <c r="I148" s="7"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="16">
         <v>45091</v>
       </c>
@@ -4991,7 +4996,7 @@
       </c>
       <c r="I149" s="7"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="16">
         <v>45091</v>
       </c>
@@ -5019,7 +5024,7 @@
       </c>
       <c r="I150" s="7"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
         <v>45091</v>
       </c>
@@ -5047,7 +5052,7 @@
       </c>
       <c r="I151" s="7"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>45071</v>
       </c>
@@ -5075,7 +5080,7 @@
       </c>
       <c r="I152" s="7"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>45071</v>
       </c>
@@ -5103,7 +5108,7 @@
       </c>
       <c r="I153" s="7"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>45071</v>
       </c>
@@ -5131,7 +5136,7 @@
       </c>
       <c r="I154" s="7"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>45071</v>
       </c>
@@ -5159,7 +5164,7 @@
       </c>
       <c r="I155" s="7"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>45071</v>
       </c>
@@ -5187,7 +5192,7 @@
       </c>
       <c r="I156" s="7"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>45071</v>
       </c>
@@ -5215,7 +5220,7 @@
       </c>
       <c r="I157" s="7"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>45071</v>
       </c>
@@ -5243,7 +5248,7 @@
       </c>
       <c r="I158" s="7"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>45071</v>
       </c>
@@ -5271,7 +5276,7 @@
       </c>
       <c r="I159" s="7"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>45071</v>
       </c>
@@ -5299,7 +5304,7 @@
       </c>
       <c r="I160" s="7"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>45071</v>
       </c>
@@ -5327,7 +5332,7 @@
       </c>
       <c r="I161" s="7"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>45071</v>
       </c>
@@ -5353,7 +5358,7 @@
       </c>
       <c r="I162" s="7"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>45071</v>
       </c>
@@ -5381,7 +5386,7 @@
       </c>
       <c r="I163" s="7"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>45071</v>
       </c>
@@ -5407,7 +5412,7 @@
       </c>
       <c r="I164" s="7"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>45071</v>
       </c>
@@ -5435,7 +5440,7 @@
       </c>
       <c r="I165" s="7"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>45071</v>
       </c>
@@ -5463,7 +5468,7 @@
       </c>
       <c r="I166" s="7"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>45071</v>
       </c>
@@ -5491,7 +5496,7 @@
       </c>
       <c r="I167" s="7"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>45071</v>
       </c>
@@ -5519,7 +5524,7 @@
       </c>
       <c r="I168" s="7"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>45071</v>
       </c>
@@ -5547,7 +5552,7 @@
       </c>
       <c r="I169" s="7"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>45071</v>
       </c>
@@ -5575,7 +5580,7 @@
       </c>
       <c r="I170" s="7"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>45071</v>
       </c>
@@ -5603,7 +5608,7 @@
       </c>
       <c r="I171" s="7"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>45071</v>
       </c>
@@ -5631,7 +5636,7 @@
       </c>
       <c r="I172" s="7"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>45071</v>
       </c>
@@ -5659,7 +5664,7 @@
       </c>
       <c r="I173" s="7"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>45071</v>
       </c>
@@ -5687,7 +5692,7 @@
       </c>
       <c r="I174" s="7"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>45071</v>
       </c>
@@ -5715,7 +5720,7 @@
       </c>
       <c r="I175" s="7"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>45071</v>
       </c>
@@ -5743,7 +5748,7 @@
       </c>
       <c r="I176" s="7"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>45071</v>
       </c>
@@ -5771,7 +5776,7 @@
       </c>
       <c r="I177" s="7"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>45071</v>
       </c>
@@ -5797,7 +5802,7 @@
       </c>
       <c r="I178" s="7"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>45071</v>
       </c>
@@ -5825,7 +5830,7 @@
       </c>
       <c r="I179" s="7"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>45071</v>
       </c>
@@ -5851,7 +5856,7 @@
       </c>
       <c r="I180" s="7"/>
     </row>
-    <row r="181" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>45071</v>
       </c>
@@ -5879,7 +5884,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
         <v>45105</v>
       </c>
@@ -5904,7 +5909,7 @@
       </c>
       <c r="I182" s="5"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="16">
         <v>45105</v>
       </c>
@@ -5932,7 +5937,7 @@
       </c>
       <c r="I183" s="7"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="16">
         <v>45105</v>
       </c>
@@ -5960,7 +5965,7 @@
       </c>
       <c r="I184" s="7"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="16">
         <v>45105</v>
       </c>
@@ -5988,7 +5993,7 @@
       </c>
       <c r="I185" s="7"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="16">
         <v>45105</v>
       </c>
@@ -6016,7 +6021,7 @@
       </c>
       <c r="I186" s="7"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="16">
         <v>45105</v>
       </c>
@@ -6044,7 +6049,7 @@
       </c>
       <c r="I187" s="7"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="16">
         <v>45105</v>
       </c>
@@ -6072,7 +6077,7 @@
       </c>
       <c r="I188" s="7"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="16">
         <v>45105</v>
       </c>
@@ -6100,7 +6105,7 @@
       </c>
       <c r="I189" s="7"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="16">
         <v>45105</v>
       </c>
@@ -6126,7 +6131,7 @@
       </c>
       <c r="I190" s="7"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="16">
         <v>45105</v>
       </c>
@@ -6154,7 +6159,7 @@
       </c>
       <c r="I191" s="7"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="16">
         <v>45105</v>
       </c>
@@ -6182,7 +6187,7 @@
       </c>
       <c r="I192" s="7"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="16">
         <v>45105</v>
       </c>
@@ -6210,7 +6215,7 @@
       </c>
       <c r="I193" s="7"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="16">
         <v>45105</v>
       </c>
@@ -6238,7 +6243,7 @@
       </c>
       <c r="I194" s="7"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="16">
         <v>45105</v>
       </c>
@@ -6266,7 +6271,7 @@
       </c>
       <c r="I195" s="7"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="16">
         <v>45105</v>
       </c>
@@ -6294,7 +6299,7 @@
       </c>
       <c r="I196" s="7"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="16">
         <v>45105</v>
       </c>
@@ -6322,7 +6327,7 @@
       </c>
       <c r="I197" s="7"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="16">
         <v>45105</v>
       </c>
@@ -6350,7 +6355,7 @@
       </c>
       <c r="I198" s="7"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="16">
         <v>45105</v>
       </c>
@@ -6378,7 +6383,7 @@
       </c>
       <c r="I199" s="7"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="16">
         <v>45105</v>
       </c>
@@ -6406,7 +6411,7 @@
       </c>
       <c r="I200" s="7"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="16">
         <v>45105</v>
       </c>
@@ -6434,7 +6439,7 @@
       </c>
       <c r="I201" s="7"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="16">
         <v>45105</v>
       </c>
@@ -6462,7 +6467,7 @@
       </c>
       <c r="I202" s="7"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="16">
         <v>45105</v>
       </c>
@@ -6490,7 +6495,7 @@
       </c>
       <c r="I203" s="7"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="16">
         <v>45105</v>
       </c>
@@ -6518,7 +6523,7 @@
       </c>
       <c r="I204" s="7"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="16">
         <v>45105</v>
       </c>
@@ -6546,7 +6551,7 @@
       </c>
       <c r="I205" s="7"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="16">
         <v>45105</v>
       </c>
@@ -6574,7 +6579,7 @@
       </c>
       <c r="I206" s="7"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="16">
         <v>45105</v>
       </c>
@@ -6602,7 +6607,7 @@
       </c>
       <c r="I207" s="7"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="16">
         <v>45105</v>
       </c>
@@ -6630,7 +6635,7 @@
       </c>
       <c r="I208" s="7"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="16">
         <v>45105</v>
       </c>
@@ -6656,7 +6661,7 @@
       </c>
       <c r="I209" s="7"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="16">
         <v>45105</v>
       </c>
@@ -6684,7 +6689,7 @@
       </c>
       <c r="I210" s="7"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="16">
         <v>45105</v>
       </c>
@@ -6712,7 +6717,7 @@
       </c>
       <c r="I211" s="7"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>45085</v>
       </c>
@@ -6740,7 +6745,7 @@
       </c>
       <c r="I212" s="7"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>45085</v>
       </c>
@@ -6770,7 +6775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>45085</v>
       </c>
@@ -6798,7 +6803,7 @@
       </c>
       <c r="I214" s="7"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>45085</v>
       </c>
@@ -6826,7 +6831,7 @@
       </c>
       <c r="I215" s="7"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>45085</v>
       </c>
@@ -6854,7 +6859,7 @@
       </c>
       <c r="I216" s="7"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>45085</v>
       </c>
@@ -6882,7 +6887,7 @@
       </c>
       <c r="I217" s="7"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>45085</v>
       </c>
@@ -6908,7 +6913,7 @@
       </c>
       <c r="I218" s="7"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>45085</v>
       </c>
@@ -6936,7 +6941,7 @@
       </c>
       <c r="I219" s="7"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>45085</v>
       </c>
@@ -6964,7 +6969,7 @@
       </c>
       <c r="I220" s="7"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>45085</v>
       </c>
@@ -6992,7 +6997,7 @@
       </c>
       <c r="I221" s="7"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>45085</v>
       </c>
@@ -7018,7 +7023,7 @@
       </c>
       <c r="I222" s="7"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>45085</v>
       </c>
@@ -7046,7 +7051,7 @@
       </c>
       <c r="I223" s="7"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>45085</v>
       </c>
@@ -7072,7 +7077,7 @@
       </c>
       <c r="I224" s="7"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>45085</v>
       </c>
@@ -7100,7 +7105,7 @@
       </c>
       <c r="I225" s="7"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>45085</v>
       </c>
@@ -7128,7 +7133,7 @@
       </c>
       <c r="I226" s="7"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>45085</v>
       </c>
@@ -7156,7 +7161,7 @@
       </c>
       <c r="I227" s="7"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>45085</v>
       </c>
@@ -7184,7 +7189,7 @@
       </c>
       <c r="I228" s="7"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>45085</v>
       </c>
@@ -7212,7 +7217,7 @@
       </c>
       <c r="I229" s="7"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>45085</v>
       </c>
@@ -7240,7 +7245,7 @@
       </c>
       <c r="I230" s="7"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>45085</v>
       </c>
@@ -7268,7 +7273,7 @@
       </c>
       <c r="I231" s="7"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>45085</v>
       </c>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="I232" s="7"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>45085</v>
       </c>
@@ -7324,7 +7329,7 @@
       </c>
       <c r="I233" s="7"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>45085</v>
       </c>
@@ -7352,7 +7357,7 @@
       </c>
       <c r="I234" s="7"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>45085</v>
       </c>
@@ -7380,7 +7385,7 @@
       </c>
       <c r="I235" s="7"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>45085</v>
       </c>
@@ -7408,7 +7413,7 @@
       </c>
       <c r="I236" s="7"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>45085</v>
       </c>
@@ -7436,7 +7441,7 @@
       </c>
       <c r="I237" s="7"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>45085</v>
       </c>
@@ -7462,7 +7467,7 @@
       </c>
       <c r="I238" s="7"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>45085</v>
       </c>
@@ -7490,7 +7495,7 @@
       </c>
       <c r="I239" s="7"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>45085</v>
       </c>
@@ -7516,7 +7521,7 @@
       </c>
       <c r="I240" s="7"/>
     </row>
-    <row r="241" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>45085</v>
       </c>
@@ -7544,7 +7549,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
         <v>45119</v>
       </c>
@@ -7569,7 +7574,7 @@
       </c>
       <c r="I242" s="5"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>45119</v>
       </c>
@@ -7597,7 +7602,7 @@
       </c>
       <c r="I243" s="7"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>45119</v>
       </c>
@@ -7625,7 +7630,7 @@
       </c>
       <c r="I244" s="7"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>45119</v>
       </c>
@@ -7653,7 +7658,7 @@
       </c>
       <c r="I245" s="7"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>45119</v>
       </c>
@@ -7681,7 +7686,7 @@
       </c>
       <c r="I246" s="7"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>45119</v>
       </c>
@@ -7709,7 +7714,7 @@
       </c>
       <c r="I247" s="7"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>45119</v>
       </c>
@@ -7737,7 +7742,7 @@
       </c>
       <c r="I248" s="7"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>45119</v>
       </c>
@@ -7765,7 +7770,7 @@
       </c>
       <c r="I249" s="7"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>45119</v>
       </c>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="I250" s="7"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>45119</v>
       </c>
@@ -7819,7 +7824,7 @@
       </c>
       <c r="I251" s="7"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>45119</v>
       </c>
@@ -7847,7 +7852,7 @@
       </c>
       <c r="I252" s="7"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>45119</v>
       </c>
@@ -7875,7 +7880,7 @@
       </c>
       <c r="I253" s="7"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>45119</v>
       </c>
@@ -7903,7 +7908,7 @@
       </c>
       <c r="I254" s="7"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>45119</v>
       </c>
@@ -7931,7 +7936,7 @@
       </c>
       <c r="I255" s="7"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>45119</v>
       </c>
@@ -7959,7 +7964,7 @@
       </c>
       <c r="I256" s="7"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>45119</v>
       </c>
@@ -7987,7 +7992,7 @@
       </c>
       <c r="I257" s="7"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>45119</v>
       </c>
@@ -8015,7 +8020,7 @@
       </c>
       <c r="I258" s="7"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>45119</v>
       </c>
@@ -8043,7 +8048,7 @@
       </c>
       <c r="I259" s="7"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>45119</v>
       </c>
@@ -8071,7 +8076,7 @@
       </c>
       <c r="I260" s="7"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>45119</v>
       </c>
@@ -8099,7 +8104,7 @@
       </c>
       <c r="I261" s="7"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>45119</v>
       </c>
@@ -8127,7 +8132,7 @@
       </c>
       <c r="I262" s="7"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>45119</v>
       </c>
@@ -8155,7 +8160,7 @@
       </c>
       <c r="I263" s="7"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>45119</v>
       </c>
@@ -8183,7 +8188,7 @@
       </c>
       <c r="I264" s="7"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>45119</v>
       </c>
@@ -8211,7 +8216,7 @@
       </c>
       <c r="I265" s="7"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>45119</v>
       </c>
@@ -8239,7 +8244,7 @@
       </c>
       <c r="I266" s="7"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>45119</v>
       </c>
@@ -8267,7 +8272,7 @@
       </c>
       <c r="I267" s="7"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>45119</v>
       </c>
@@ -8295,7 +8300,7 @@
       </c>
       <c r="I268" s="7"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>45119</v>
       </c>
@@ -8321,7 +8326,7 @@
       </c>
       <c r="I269" s="7"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>45119</v>
       </c>
@@ -8349,7 +8354,7 @@
       </c>
       <c r="I270" s="7"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>45119</v>
       </c>
@@ -8377,7 +8382,7 @@
       </c>
       <c r="I271" s="7"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>45099</v>
       </c>
@@ -8405,7 +8410,7 @@
       </c>
       <c r="I272" s="7"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>45099</v>
       </c>
@@ -8433,7 +8438,7 @@
       </c>
       <c r="I273" s="7"/>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>45099</v>
       </c>
@@ -8461,7 +8466,7 @@
       </c>
       <c r="I274" s="7"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>45099</v>
       </c>
@@ -8489,7 +8494,7 @@
       </c>
       <c r="I275" s="7"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>45099</v>
       </c>
@@ -8517,7 +8522,7 @@
       </c>
       <c r="I276" s="7"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>45099</v>
       </c>
@@ -8545,7 +8550,7 @@
       </c>
       <c r="I277" s="7"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>45099</v>
       </c>
@@ -8571,7 +8576,7 @@
       </c>
       <c r="I278" s="7"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>45099</v>
       </c>
@@ -8599,7 +8604,7 @@
       </c>
       <c r="I279" s="7"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>45099</v>
       </c>
@@ -8627,7 +8632,7 @@
       </c>
       <c r="I280" s="7"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>45099</v>
       </c>
@@ -8655,7 +8660,7 @@
       </c>
       <c r="I281" s="7"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>45099</v>
       </c>
@@ -8681,7 +8686,7 @@
       </c>
       <c r="I282" s="7"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>45099</v>
       </c>
@@ -8709,7 +8714,7 @@
       </c>
       <c r="I283" s="7"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>45099</v>
       </c>
@@ -8735,7 +8740,7 @@
       </c>
       <c r="I284" s="7"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>45099</v>
       </c>
@@ -8763,7 +8768,7 @@
       </c>
       <c r="I285" s="7"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>45099</v>
       </c>
@@ -8791,7 +8796,7 @@
       </c>
       <c r="I286" s="7"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>45099</v>
       </c>
@@ -8819,7 +8824,7 @@
       </c>
       <c r="I287" s="7"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>45099</v>
       </c>
@@ -8847,7 +8852,7 @@
       </c>
       <c r="I288" s="7"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>45099</v>
       </c>
@@ -8875,7 +8880,7 @@
       </c>
       <c r="I289" s="7"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>45099</v>
       </c>
@@ -8903,7 +8908,7 @@
       </c>
       <c r="I290" s="7"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>45099</v>
       </c>
@@ -8931,7 +8936,7 @@
       </c>
       <c r="I291" s="7"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>45099</v>
       </c>
@@ -8959,7 +8964,7 @@
       </c>
       <c r="I292" s="7"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>45099</v>
       </c>
@@ -8987,7 +8992,7 @@
       </c>
       <c r="I293" s="7"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>45099</v>
       </c>
@@ -9015,7 +9020,7 @@
       </c>
       <c r="I294" s="7"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>45099</v>
       </c>
@@ -9043,7 +9048,7 @@
       </c>
       <c r="I295" s="7"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>45099</v>
       </c>
@@ -9071,7 +9076,7 @@
       </c>
       <c r="I296" s="7"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>45099</v>
       </c>
@@ -9099,7 +9104,7 @@
       </c>
       <c r="I297" s="7"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
         <v>45099</v>
       </c>
@@ -9125,7 +9130,7 @@
       </c>
       <c r="I298" s="7"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>45099</v>
       </c>
@@ -9153,7 +9158,7 @@
       </c>
       <c r="I299" s="7"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>45099</v>
       </c>
@@ -9179,7 +9184,7 @@
       </c>
       <c r="I300" s="7"/>
     </row>
-    <row r="301" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="22" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
         <v>45099</v>
       </c>
@@ -9208,7 +9213,13 @@
       <c r="I301" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I301" xr:uid="{98193405-CF40-6248-94AF-85C31E4AA383}"/>
+  <autoFilter ref="A1:I301" xr:uid="{98193405-CF40-6248-94AF-85C31E4AA383}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1000</formula>
